--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.3414817814509661</v>
       </c>
-      <c r="BA2">
-        <v>0.3414817814509661</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>0.4082229956956951</v>
       </c>
-      <c r="BA3">
-        <v>0.4082229956956951</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>0.4148772958367175</v>
-      </c>
       <c r="C4">
         <v>0.2622798531249657</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>0.2622798531249657</v>
       </c>
-      <c r="BA4">
-        <v>0.2622798531249657</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>0.6845813514878358</v>
-      </c>
       <c r="C5">
         <v>0.4989385597712612</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>0.4989385597712612</v>
       </c>
-      <c r="BA5">
-        <v>0.4989385597712612</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>0.4127009086287075</v>
-      </c>
-      <c r="C6">
-        <v>0.3390406387066065</v>
-      </c>
       <c r="D6">
         <v>0.1216139147831967</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>0.1216139147831967</v>
       </c>
-      <c r="BA6">
-        <v>0.1216139147831967</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>0.6274680232633898</v>
-      </c>
       <c r="D7">
         <v>0.6548011357729422</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>0.6548011357729422</v>
       </c>
-      <c r="BA7">
-        <v>0.6548011357729422</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>0.4244732020363102</v>
-      </c>
-      <c r="D8">
-        <v>0.4343285068005116</v>
-      </c>
       <c r="E8">
         <v>0.9925931342935428</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>0.9925931342935428</v>
       </c>
-      <c r="BA8">
-        <v>0.9925931342935428</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>0.4266472535042993</v>
-      </c>
-      <c r="D9">
-        <v>0.4191034836738936</v>
-      </c>
       <c r="E9">
         <v>0.4197174453273789</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>0.4197174453273789</v>
       </c>
-      <c r="BA9">
-        <v>0.4197174453273789</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>0.4230864195430968</v>
-      </c>
-      <c r="D10">
-        <v>0.3934705689389091</v>
-      </c>
-      <c r="E10">
-        <v>0.3967004160924716</v>
-      </c>
       <c r="F10">
         <v>0.4423121297183457</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>0.4423121297183457</v>
       </c>
-      <c r="BA10">
-        <v>0.4423121297183457</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>0.4344922659827691</v>
-      </c>
-      <c r="D11">
-        <v>0.4027362488479621</v>
-      </c>
-      <c r="E11">
-        <v>0.3967808902560108</v>
-      </c>
       <c r="F11">
         <v>0.3248472793844002</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>0.3248472793844002</v>
       </c>
-      <c r="BA11">
-        <v>0.3248472793844002</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>0.4301476120177902</v>
-      </c>
-      <c r="D12">
-        <v>0.3963436356252297</v>
-      </c>
-      <c r="E12">
-        <v>0.3886954132373432</v>
-      </c>
-      <c r="F12">
-        <v>0.2980141330449726</v>
-      </c>
       <c r="G12">
         <v>0.07907397708568453</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>0.07907397708568453</v>
       </c>
-      <c r="BA12">
-        <v>0.07907397708568453</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>0.4357098224339685</v>
-      </c>
-      <c r="D13">
-        <v>0.4004104027947454</v>
-      </c>
-      <c r="E13">
-        <v>0.3774216355052999</v>
-      </c>
-      <c r="F13">
-        <v>0.2790483646325725</v>
-      </c>
       <c r="G13">
         <v>0.2409202938150372</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>0.2409202938150372</v>
       </c>
-      <c r="BA13">
-        <v>0.2409202938150372</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>0.432577031231034</v>
-      </c>
-      <c r="D14">
-        <v>0.3978029299957345</v>
-      </c>
-      <c r="E14">
-        <v>0.3634637953232129</v>
-      </c>
-      <c r="F14">
-        <v>0.275248799449173</v>
-      </c>
-      <c r="G14">
-        <v>0.2409141906906314</v>
-      </c>
       <c r="H14">
         <v>0.1901876995395071</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>0.1901876995395071</v>
       </c>
-      <c r="BA14">
-        <v>0.1901876995395071</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>0.4355526986978151</v>
-      </c>
-      <c r="D15">
-        <v>0.3994734483754284</v>
-      </c>
-      <c r="E15">
-        <v>0.4519439967893757</v>
-      </c>
-      <c r="F15">
-        <v>0.4096211583035337</v>
-      </c>
-      <c r="G15">
-        <v>-0.002425626523120172</v>
-      </c>
       <c r="H15">
         <v>0.3234244561263893</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0.3234244561263893</v>
       </c>
-      <c r="BA15">
-        <v>0.3234244561263893</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>0.4335623761753192</v>
-      </c>
-      <c r="D16">
-        <v>0.3984031215054105</v>
-      </c>
-      <c r="E16">
-        <v>0.461070202355642</v>
-      </c>
-      <c r="F16">
-        <v>0.4306892319799887</v>
-      </c>
-      <c r="G16">
-        <v>0.1514028724571688</v>
-      </c>
-      <c r="H16">
-        <v>0.5026203257537816</v>
-      </c>
       <c r="I16">
         <v>0.5460928092329453</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>0.5460928092329453</v>
       </c>
-      <c r="BA16">
-        <v>0.5460928092329453</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.4352358792494898</v>
-      </c>
-      <c r="D17">
-        <v>0.3990888911346421</v>
-      </c>
-      <c r="E17">
-        <v>0.442159572377696</v>
-      </c>
-      <c r="F17">
-        <v>0.4185810711985491</v>
-      </c>
-      <c r="G17">
-        <v>0.1462774785881038</v>
-      </c>
-      <c r="H17">
-        <v>0.3565026020460067</v>
-      </c>
       <c r="I17">
         <v>0.24993599858945</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>0.24993599858945</v>
       </c>
-      <c r="BA17">
-        <v>0.24993599858945</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.4340277065408186</v>
-      </c>
-      <c r="D18">
-        <v>0.3986495110178463</v>
-      </c>
-      <c r="E18">
-        <v>0.4388528329589255</v>
-      </c>
-      <c r="F18">
-        <v>0.4143160737401808</v>
-      </c>
-      <c r="G18">
-        <v>0.1390837096149795</v>
-      </c>
-      <c r="H18">
-        <v>0.2771566879401348</v>
-      </c>
-      <c r="I18">
-        <v>0.258039405063883</v>
-      </c>
       <c r="J18">
         <v>-0.0008109998315291023</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>-0.0008109998315291023</v>
       </c>
-      <c r="BA18">
-        <v>-0.0008109998315291023</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.4349919303631319</v>
-      </c>
-      <c r="D19">
-        <v>0.3989310266523685</v>
-      </c>
-      <c r="E19">
-        <v>0.4428018972573302</v>
-      </c>
-      <c r="F19">
-        <v>0.4150437170678106</v>
-      </c>
-      <c r="G19">
-        <v>0.2280470297005412</v>
-      </c>
-      <c r="H19">
-        <v>0.35484940562359</v>
-      </c>
-      <c r="I19">
-        <v>0.3372212414908091</v>
-      </c>
       <c r="J19">
         <v>0.2240000000000038</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0.2240000000000038</v>
       </c>
-      <c r="BA19">
-        <v>0.2240000000000038</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.4342719412310437</v>
-      </c>
-      <c r="D20">
-        <v>0.3987506565125918</v>
-      </c>
-      <c r="E20">
-        <v>0.4438017257118961</v>
-      </c>
-      <c r="F20">
-        <v>0.4156424548087728</v>
-      </c>
-      <c r="G20">
-        <v>0.2597719879291343</v>
-      </c>
-      <c r="H20">
-        <v>0.3801115959281831</v>
-      </c>
-      <c r="I20">
-        <v>0.2513391483412732</v>
-      </c>
-      <c r="J20">
-        <v>0.2240000000000038</v>
-      </c>
       <c r="K20">
         <v>0.2694296772580742</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>0.2694296772580742</v>
       </c>
-      <c r="BA20">
-        <v>0.2694296772580742</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>0.4429981811611816</v>
-      </c>
-      <c r="F21">
-        <v>0.4156513106599496</v>
-      </c>
-      <c r="G21">
-        <v>0.2784603259234363</v>
-      </c>
-      <c r="H21">
-        <v>0.3798724218484318</v>
-      </c>
-      <c r="I21">
-        <v>0.3337488852512678</v>
-      </c>
-      <c r="J21">
-        <v>0.438999999999993</v>
-      </c>
       <c r="K21">
         <v>0.3037528065631818</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>0.3037528065631818</v>
       </c>
-      <c r="BA21">
-        <v>0.3037528065631818</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>0.442722549752235</v>
-      </c>
-      <c r="F22">
-        <v>0.4155843034003456</v>
-      </c>
-      <c r="G22">
-        <v>0.2878027477569071</v>
-      </c>
-      <c r="H22">
-        <v>0.3777511785497579</v>
-      </c>
-      <c r="I22">
-        <v>0.2750194367111476</v>
-      </c>
-      <c r="J22">
-        <v>0.4289999999999878</v>
-      </c>
       <c r="K22">
-        <v>0.3064287468130971</v>
+        <v>0.3366847526933234</v>
       </c>
       <c r="L22">
         <v>0.102683801342323</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>0.102683801342323</v>
       </c>
-      <c r="BA22">
-        <v>0.102683801342323</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>0.4428811210215844</v>
-      </c>
-      <c r="F23">
-        <v>0.4155730025563145</v>
-      </c>
-      <c r="G23">
-        <v>0.2927010199085873</v>
-      </c>
-      <c r="H23">
-        <v>0.377257931975765</v>
-      </c>
-      <c r="I23">
-        <v>0.3391796772760413</v>
-      </c>
-      <c r="J23">
-        <v>0.3636113052360631</v>
-      </c>
       <c r="K23">
-        <v>0.2867424793899147</v>
+        <v>0.343051523184368</v>
       </c>
       <c r="L23">
         <v>0.4016405696262808</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.4016405696262808</v>
       </c>
-      <c r="BA23">
-        <v>0.4016405696262808</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>0.4429528062683828</v>
-      </c>
-      <c r="F24">
-        <v>0.41557891845575</v>
-      </c>
-      <c r="G24">
-        <v>0.295232466295383</v>
-      </c>
-      <c r="H24">
-        <v>0.3773119601923854</v>
-      </c>
-      <c r="I24">
-        <v>0.3565108416057455</v>
-      </c>
-      <c r="J24">
-        <v>0.3454334952594861</v>
-      </c>
       <c r="K24">
-        <v>0.2600907720923971</v>
+        <v>0.3415596167740214</v>
       </c>
       <c r="L24">
-        <v>0.2279317174843669</v>
+        <v>0.3708677118459638</v>
       </c>
       <c r="M24">
         <v>0.4670353440379102</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>0.4670353440379102</v>
       </c>
-      <c r="BA24">
-        <v>0.4670353440379102</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.29654637385857</v>
-      </c>
-      <c r="H25">
-        <v>0.3773653093805391</v>
-      </c>
-      <c r="I25">
-        <v>0.3573443941982851</v>
-      </c>
-      <c r="J25">
-        <v>0.347296440870234</v>
-      </c>
       <c r="K25">
-        <v>0.2943284363105221</v>
+        <v>0.3404509444223968</v>
       </c>
       <c r="L25">
-        <v>0.1877325460638133</v>
+        <v>0.3380874520300434</v>
       </c>
       <c r="M25">
         <v>0.3229903499871796</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>0.3229903499871796</v>
       </c>
-      <c r="BA25">
-        <v>0.3229903499871796</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.2972274566930833</v>
-      </c>
-      <c r="H26">
-        <v>0.3773737927916054</v>
-      </c>
-      <c r="I26">
-        <v>0.3566994934674602</v>
-      </c>
-      <c r="J26">
-        <v>0.3498538854633474</v>
-      </c>
       <c r="K26">
-        <v>0.2597361176108137</v>
+        <v>0.3402714354676795</v>
       </c>
       <c r="L26">
-        <v>0.1734820405026909</v>
+        <v>0.3316933048662125</v>
       </c>
       <c r="M26">
-        <v>0.2751691047584472</v>
+        <v>0.3184460960906641</v>
       </c>
       <c r="N26">
         <v>0.344825264879205</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>0.344825264879205</v>
       </c>
-      <c r="BA26">
-        <v>0.344825264879205</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.2975806424085601</v>
-      </c>
-      <c r="H27">
-        <v>0.377371485959902</v>
-      </c>
-      <c r="I27">
-        <v>0.3565135946600676</v>
-      </c>
-      <c r="J27">
-        <v>0.3504022540234132</v>
-      </c>
       <c r="K27">
-        <v>0.3089759998210366</v>
+        <v>0.3403321544032586</v>
       </c>
       <c r="L27">
-        <v>0.2787066493361419</v>
+        <v>0.3326331991902359</v>
       </c>
       <c r="M27">
-        <v>0.1674083228736549</v>
+        <v>0.332952482984156</v>
       </c>
       <c r="N27">
         <v>0.2849999999999966</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>0.2849999999999966</v>
       </c>
-      <c r="BA27">
-        <v>0.2849999999999966</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.2977637709143671</v>
-      </c>
-      <c r="H28">
-        <v>0.3773702353854366</v>
-      </c>
-      <c r="I28">
-        <v>0.3565025716765736</v>
-      </c>
-      <c r="J28">
-        <v>0.3502814449466227</v>
-      </c>
       <c r="K28">
-        <v>0.3273972574783621</v>
+        <v>0.3403690328831889</v>
       </c>
       <c r="L28">
-        <v>0.3088116104966821</v>
+        <v>0.3334108632068926</v>
       </c>
       <c r="M28">
-        <v>0.1709711880072433</v>
+        <v>0.3375032331310416</v>
       </c>
       <c r="N28">
-        <v>0.289999999999992</v>
+        <v>0.3201354781570425</v>
       </c>
       <c r="O28">
         <v>0.2296800116567681</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>0.2296800116567681</v>
       </c>
-      <c r="BA28">
-        <v>0.2296800116567681</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.3565090182853698</v>
-      </c>
-      <c r="J29">
-        <v>0.3501852419250912</v>
-      </c>
       <c r="K29">
-        <v>0.3285675714914046</v>
+        <v>0.3403738554286591</v>
       </c>
       <c r="L29">
-        <v>0.3125171343306272</v>
+        <v>0.3335454147178483</v>
       </c>
       <c r="M29">
-        <v>0.2872485237765687</v>
+        <v>0.3371859406629168</v>
       </c>
       <c r="N29">
-        <v>0.3440000000000083</v>
+        <v>0.336147271999416</v>
       </c>
       <c r="O29">
         <v>0.319136520886417</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>0.319136520886417</v>
       </c>
-      <c r="BA29">
-        <v>0.319136520886417</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.3565110059582312</v>
-      </c>
-      <c r="J30">
-        <v>0.3501702182059857</v>
-      </c>
       <c r="K30">
-        <v>0.3272348098146143</v>
+        <v>0.340371489688675</v>
       </c>
       <c r="L30">
-        <v>0.3122030699536372</v>
+        <v>0.3335184594287996</v>
       </c>
       <c r="M30">
-        <v>0.335350583200551</v>
+        <v>0.3365988841963</v>
       </c>
       <c r="N30">
-        <v>0.3440000000000083</v>
+        <v>0.3369127604472343</v>
       </c>
       <c r="O30">
-        <v>0.2709517860987916</v>
+        <v>0.3386492354796223</v>
       </c>
       <c r="P30">
         <v>0.3192030404897963</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.3192030404897963</v>
       </c>
-      <c r="BA30">
-        <v>0.3192030404897963</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.3565111454000581</v>
-      </c>
-      <c r="J31">
-        <v>0.3501764152826565</v>
-      </c>
       <c r="K31">
-        <v>0.3267146753204137</v>
+        <v>0.3403702776694971</v>
       </c>
       <c r="L31">
-        <v>0.3119487500761294</v>
+        <v>0.3335001448068433</v>
       </c>
       <c r="M31">
-        <v>0.3291596613140131</v>
+        <v>0.3364696121588905</v>
       </c>
       <c r="N31">
-        <v>0.3361413797588326</v>
+        <v>0.3354492085107852</v>
       </c>
       <c r="O31">
-        <v>0.2734322603357384</v>
+        <v>0.3346001223970164</v>
       </c>
       <c r="P31">
         <v>0.3838834518010543</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.3838834518010543</v>
       </c>
-      <c r="BA31">
-        <v>0.3838834518010543</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.3565110813511929</v>
-      </c>
-      <c r="J32">
-        <v>0.3501799023923715</v>
-      </c>
-      <c r="K32">
-        <v>0.326676335310404</v>
-      </c>
       <c r="L32">
-        <v>0.3118916363614628</v>
+        <v>0.3334973696970077</v>
       </c>
       <c r="M32">
-        <v>0.3217955255886241</v>
+        <v>0.3364977891861615</v>
       </c>
       <c r="N32">
-        <v>0.3339512741725071</v>
+        <v>0.3349629595817254</v>
       </c>
       <c r="O32">
-        <v>0.3134604603094857</v>
+        <v>0.3313777333685293</v>
       </c>
       <c r="P32">
-        <v>0.3530008076482858</v>
+        <v>0.3485291019712758</v>
       </c>
       <c r="Q32">
         <v>0.1721310865893741</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>0.1721310865893741</v>
       </c>
-      <c r="BA32">
-        <v>0.1721310865893741</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.3267123277536096</v>
-      </c>
       <c r="L33">
-        <v>0.3118870620767241</v>
+        <v>0.3334981114956231</v>
       </c>
       <c r="M33">
-        <v>0.3202163720536239</v>
+        <v>0.3365198198765635</v>
       </c>
       <c r="N33">
-        <v>0.3341750039677621</v>
+        <v>0.3349812205213236</v>
       </c>
       <c r="O33">
-        <v>0.2992861429221563</v>
+        <v>0.3309021870576044</v>
       </c>
       <c r="P33">
-        <v>0.2836408392058871</v>
+        <v>0.3317925759230027</v>
       </c>
       <c r="Q33">
         <v>0.3124151146021887</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>0.3124151146021887</v>
       </c>
-      <c r="BA33">
-        <v>0.3124151146021887</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.326726994112147</v>
-      </c>
-      <c r="L34">
-        <v>0.3118883455419678</v>
-      </c>
       <c r="M34">
-        <v>0.3205613345777565</v>
+        <v>0.3365228892143123</v>
       </c>
       <c r="N34">
-        <v>0.3344698050351548</v>
+        <v>0.3350371839154467</v>
       </c>
       <c r="O34">
-        <v>0.3332040471845374</v>
+        <v>0.3311120727523318</v>
       </c>
       <c r="P34">
-        <v>0.2964015100368016</v>
+        <v>0.3308155578496974</v>
       </c>
       <c r="Q34">
-        <v>0.3365009955204243</v>
+        <v>0.3380072324082535</v>
       </c>
       <c r="R34">
         <v>1.338781480463297</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>1.338781480463297</v>
       </c>
-      <c r="BA34">
-        <v>1.338781480463297</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.3267282212848199</v>
-      </c>
-      <c r="L35">
-        <v>0.3118889103213679</v>
-      </c>
       <c r="M35">
-        <v>0.3208469753746218</v>
+        <v>0.3365213339441411</v>
       </c>
       <c r="N35">
-        <v>0.3345282167438594</v>
+        <v>0.335050801943084</v>
       </c>
       <c r="O35">
-        <v>0.3303461999463417</v>
+        <v>0.3312219263595895</v>
       </c>
       <c r="P35">
-        <v>0.3257196540706608</v>
+        <v>0.3323033152136675</v>
       </c>
       <c r="Q35">
-        <v>0.3433427153508433</v>
+        <v>0.3311706460174123</v>
       </c>
       <c r="R35">
         <v>0.6782258938801533</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>0.6782258938801533</v>
       </c>
-      <c r="BA35">
-        <v>0.6782258938801533</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.3267272516081094</v>
-      </c>
-      <c r="L36">
-        <v>0.3118890108449828</v>
-      </c>
-      <c r="M36">
-        <v>0.3208963567292342</v>
-      </c>
       <c r="N36">
-        <v>0.3345132062443013</v>
+        <v>0.33504872310249</v>
       </c>
       <c r="O36">
-        <v>0.3262220191554511</v>
+        <v>0.3312304720018769</v>
       </c>
       <c r="P36">
-        <v>0.3326015514782574</v>
+        <v>0.3328239092786888</v>
       </c>
       <c r="Q36">
-        <v>0.3051184965239742</v>
+        <v>0.3268746140522145</v>
       </c>
       <c r="R36">
-        <v>0.6763644633477384</v>
+        <v>0.2030801135774875</v>
       </c>
       <c r="S36">
         <v>0.5169063711852431</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.5169063711852431</v>
       </c>
-      <c r="BA36">
-        <v>0.5169063711852431</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.3208793005591052</v>
-      </c>
       <c r="N37">
-        <v>0.3345028233779737</v>
+        <v>0.3350467208285479</v>
       </c>
       <c r="O37">
-        <v>0.3253342216338185</v>
+        <v>0.3312211577110897</v>
       </c>
       <c r="P37">
-        <v>0.3313656975722147</v>
+        <v>0.3328134442542395</v>
       </c>
       <c r="Q37">
-        <v>0.2827021389734341</v>
+        <v>0.3263998733600448</v>
       </c>
       <c r="R37">
-        <v>0.7160336121364139</v>
+        <v>0.2319369639794624</v>
       </c>
       <c r="S37">
         <v>0.5229245835751897</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>0.5229245835751897</v>
       </c>
-      <c r="BA37">
-        <v>0.5229245835751897</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.3208684272435949</v>
-      </c>
-      <c r="N38">
-        <v>0.334501522956726</v>
-      </c>
       <c r="O38">
-        <v>0.3254861047163575</v>
+        <v>0.3312176225609781</v>
       </c>
       <c r="P38">
-        <v>0.3302719001391707</v>
+        <v>0.3327556958492546</v>
       </c>
       <c r="Q38">
-        <v>0.2949394374402772</v>
+        <v>0.3266911148372125</v>
       </c>
       <c r="R38">
-        <v>0.6759423534557101</v>
+        <v>0.3636000753293483</v>
       </c>
       <c r="S38">
-        <v>0.5106192037588499</v>
+        <v>0.4109816861322985</v>
       </c>
       <c r="T38">
         <v>0.6999999999999886</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>0.6999999999999886</v>
       </c>
-      <c r="BA38">
-        <v>0.6999999999999886</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.3208669919139054</v>
-      </c>
-      <c r="N39">
-        <v>0.3345022625458446</v>
-      </c>
       <c r="O39">
-        <v>0.3256158681926882</v>
+        <v>0.3312176207097245</v>
       </c>
       <c r="P39">
-        <v>0.330097449677861</v>
+        <v>0.3327405831450972</v>
       </c>
       <c r="Q39">
-        <v>0.32052284333155</v>
+        <v>0.3268143775719846</v>
       </c>
       <c r="R39">
-        <v>0.6494572658919679</v>
+        <v>0.3955261186909006</v>
       </c>
       <c r="S39">
-        <v>0.7044994482068461</v>
+        <v>0.3757085638974251</v>
       </c>
       <c r="T39">
         <v>0.8499999999999943</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>0.8499999999999943</v>
       </c>
-      <c r="BA39">
-        <v>0.8499999999999943</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.3208677787971317</v>
-      </c>
-      <c r="N40">
-        <v>0.3345026066828735</v>
-      </c>
-      <c r="O40">
-        <v>0.3256377450890762</v>
-      </c>
       <c r="P40">
-        <v>0.3301667548116966</v>
+        <v>0.3327424197892911</v>
       </c>
       <c r="Q40">
-        <v>0.3261505998993644</v>
+        <v>0.3268187684621497</v>
       </c>
       <c r="R40">
-        <v>0.4725298201177139</v>
+        <v>0.370988253490803</v>
       </c>
       <c r="S40">
-        <v>0.3259185388295975</v>
+        <v>0.3748076147329178</v>
       </c>
       <c r="T40">
-        <v>0.5999999999999943</v>
+        <v>0.5519892410499077</v>
       </c>
       <c r="U40">
         <v>0.4000000000000057</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA40">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.3256312521459231</v>
-      </c>
       <c r="P41">
-        <v>0.3302051866022447</v>
+        <v>0.332744526600103</v>
       </c>
       <c r="Q41">
-        <v>0.3251547378944752</v>
+        <v>0.3268079660949568</v>
       </c>
       <c r="R41">
-        <v>0.3726674967236647</v>
+        <v>0.3553792053945654</v>
       </c>
       <c r="S41">
-        <v>0.3005883143292891</v>
+        <v>0.3776927545654027</v>
       </c>
       <c r="T41">
-        <v>0.6000000000000227</v>
+        <v>0.4310621723263705</v>
       </c>
       <c r="U41">
         <v>0.3500000000000085</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>0.3500000000000085</v>
       </c>
-      <c r="BA41">
-        <v>0.3500000000000085</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.3256272762147275</v>
-      </c>
-      <c r="P42">
-        <v>0.3302085126047779</v>
-      </c>
       <c r="Q42">
-        <v>0.324340009367295</v>
+        <v>0.3268046773053892</v>
       </c>
       <c r="R42">
-        <v>0.203914749554059</v>
+        <v>0.357061995218789</v>
       </c>
       <c r="S42">
-        <v>0.3030496560848803</v>
+        <v>0.3786687762305309</v>
       </c>
       <c r="T42">
-        <v>0.4999999999999716</v>
+        <v>0.405141906013064</v>
       </c>
       <c r="U42">
-        <v>0.25</v>
+        <v>0.3811702380251166</v>
       </c>
       <c r="V42">
         <v>0.1700920104450461</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>0.1700920104450461</v>
       </c>
-      <c r="BA42">
-        <v>0.1700920104450461</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.3256267856953636</v>
-      </c>
-      <c r="P43">
-        <v>0.3302052872465112</v>
-      </c>
       <c r="Q43">
-        <v>0.3242199387114597</v>
+        <v>0.3268048544597082</v>
       </c>
       <c r="R43">
-        <v>0.3249308213661257</v>
+        <v>0.3616071489001154</v>
       </c>
       <c r="S43">
-        <v>0.3652365313533566</v>
+        <v>0.3787127591841531</v>
       </c>
       <c r="T43">
-        <v>0.4999999999999858</v>
+        <v>0.4032660093773903</v>
       </c>
       <c r="U43">
-        <v>0.25</v>
+        <v>0.3961085182611524</v>
       </c>
       <c r="V43">
-        <v>0.2999999999999829</v>
+        <v>0.3156668957967289</v>
       </c>
       <c r="W43">
         <v>0.2000000000000028</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA43">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.3256270355173743</v>
-      </c>
-      <c r="P44">
-        <v>0.3302040178231195</v>
-      </c>
-      <c r="Q44">
-        <v>0.3242674256941304</v>
-      </c>
       <c r="R44">
-        <v>0.367408243483747</v>
+        <v>0.3625314859613512</v>
       </c>
       <c r="S44">
-        <v>0.3844527886429009</v>
+        <v>0.3786388379744284</v>
       </c>
       <c r="T44">
-        <v>0.5000000000000142</v>
+        <v>0.4042377149442845</v>
       </c>
       <c r="U44">
-        <v>0.25</v>
+        <v>0.3988494482874435</v>
       </c>
       <c r="V44">
-        <v>0.2999999999999829</v>
+        <v>0.3821173345589166</v>
       </c>
       <c r="W44">
-        <v>0.2999999999999829</v>
+        <v>0.3363401605474415</v>
       </c>
       <c r="X44">
         <v>0.4999999999999858</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA44">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.3242918052415584</v>
-      </c>
       <c r="R45">
-        <v>0.3847451209524468</v>
+        <v>0.361631213261511</v>
       </c>
       <c r="S45">
-        <v>0.3856214754128119</v>
+        <v>0.3786119558888027</v>
       </c>
       <c r="T45">
-        <v>0.4999999999999858</v>
+        <v>0.4047214708728367</v>
       </c>
       <c r="U45">
-        <v>0.25</v>
+        <v>0.3986135688141337</v>
       </c>
       <c r="V45">
-        <v>0.2999999999999829</v>
+        <v>0.3938339279030901</v>
       </c>
       <c r="W45">
-        <v>0.4000000000000057</v>
+        <v>0.38376932599397</v>
       </c>
       <c r="X45">
-        <v>0.5999999999999943</v>
+        <v>0.4489984768623944</v>
       </c>
       <c r="Y45">
         <v>0.5999999999999943</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA45">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.3242936721861212</v>
-      </c>
-      <c r="R46">
-        <v>0.3917279498657595</v>
-      </c>
       <c r="S46">
-        <v>0.3844942013170554</v>
+        <v>0.3786102471930906</v>
       </c>
       <c r="T46">
-        <v>0.5000000000000142</v>
+        <v>0.4048393827239204</v>
       </c>
       <c r="U46">
-        <v>0.25</v>
+        <v>0.3983111936723991</v>
       </c>
       <c r="V46">
-        <v>0.2999999999999829</v>
+        <v>0.3925655238142162</v>
       </c>
       <c r="W46">
-        <v>0.4000000000000057</v>
+        <v>0.3898134057342791</v>
       </c>
       <c r="X46">
-        <v>0.4000000000000057</v>
+        <v>0.4023500916840302</v>
       </c>
       <c r="Y46">
-        <v>0.4000000000000057</v>
+        <v>0.4606618177992278</v>
       </c>
       <c r="Z46">
         <v>0.5</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0.5</v>
       </c>
-      <c r="BA46">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.3242917909654656</v>
-      </c>
-      <c r="R47">
-        <v>0.3945435174191637</v>
-      </c>
       <c r="S47">
-        <v>0.3840516602959988</v>
+        <v>0.3786121288701398</v>
       </c>
       <c r="T47">
-        <v>0.4504752239728225</v>
+        <v>0.4048521957710862</v>
       </c>
       <c r="U47">
-        <v>0.3408616946095459</v>
+        <v>0.3982240537522544</v>
       </c>
       <c r="V47">
-        <v>0.2999999999999829</v>
+        <v>0.3911567754949065</v>
       </c>
       <c r="W47">
-        <v>0.4000000000000057</v>
+        <v>0.3880884558859016</v>
       </c>
       <c r="X47">
-        <v>0.4999999999999858</v>
+        <v>0.3904823463315277</v>
       </c>
       <c r="Y47">
-        <v>0.4999999999999858</v>
+        <v>0.3983047910881582</v>
       </c>
       <c r="Z47">
-        <v>0.7</v>
+        <v>0.4141850781711054</v>
       </c>
       <c r="AA47">
         <v>0.6648928967370864</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>0.6648928967370864</v>
       </c>
-      <c r="BA47">
-        <v>0.6648928967370864</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.3242911071468132</v>
-      </c>
-      <c r="R48">
-        <v>0.3956786882422038</v>
-      </c>
-      <c r="S48">
-        <v>0.3840010759561125</v>
-      </c>
       <c r="T48">
-        <v>0.4312566092152043</v>
+        <v>0.404849373073361</v>
       </c>
       <c r="U48">
-        <v>0.3745851646047825</v>
+        <v>0.3982177255326904</v>
       </c>
       <c r="V48">
-        <v>0.2999999999999829</v>
+        <v>0.3907597665095489</v>
       </c>
       <c r="W48">
-        <v>0.4000000000000057</v>
+        <v>0.3869551935591163</v>
       </c>
       <c r="X48">
-        <v>0.4999999999999858</v>
+        <v>0.3906502936859929</v>
       </c>
       <c r="Y48">
-        <v>0.4999999999999858</v>
+        <v>0.3905292158012985</v>
       </c>
       <c r="Z48">
-        <v>0.6</v>
+        <v>0.3931345008161726</v>
       </c>
       <c r="AA48">
-        <v>0.5799999999999841</v>
+        <v>0.4949372695594115</v>
       </c>
       <c r="AB48">
         <v>0.7</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>0.7</v>
       </c>
-      <c r="BA48">
-        <v>0.7</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.3961363659314683</v>
-      </c>
-      <c r="S49">
-        <v>0.3840196495462205</v>
-      </c>
       <c r="T49">
-        <v>0.4250376052353219</v>
+        <v>0.4048474928111285</v>
       </c>
       <c r="U49">
-        <v>0.380857957046237</v>
+        <v>0.3982224894383359</v>
       </c>
       <c r="V49">
-        <v>0.2999999999999829</v>
+        <v>0.3907338336662808</v>
       </c>
       <c r="W49">
-        <v>0.2999999999999829</v>
+        <v>0.386683529166868</v>
       </c>
       <c r="X49">
-        <v>0.4000000000000057</v>
+        <v>0.3918336960715787</v>
       </c>
       <c r="Y49">
-        <v>0.4000000000000057</v>
+        <v>0.3944785426443109</v>
       </c>
       <c r="Z49">
-        <v>0.4</v>
+        <v>0.3946271509114595</v>
       </c>
       <c r="AA49">
-        <v>0.3500000000000085</v>
+        <v>0.4162763361504897</v>
       </c>
       <c r="AB49">
-        <v>0.4</v>
+        <v>0.5038945379564904</v>
       </c>
       <c r="AC49">
         <v>0.3999908011606834</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>0.3999908011606834</v>
       </c>
-      <c r="BA49">
-        <v>0.3999908011606834</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.3963208921129074</v>
-      </c>
-      <c r="S50">
-        <v>0.3840293735143879</v>
-      </c>
-      <c r="T50">
-        <v>0.4231050554040875</v>
-      </c>
       <c r="U50">
-        <v>0.3808687436654748</v>
+        <v>0.3982246672676574</v>
       </c>
       <c r="V50">
-        <v>0.2999999999999829</v>
+        <v>0.3907570748593933</v>
       </c>
       <c r="W50">
-        <v>0.2999999999999829</v>
+        <v>0.3866781609483005</v>
       </c>
       <c r="X50">
-        <v>0.4000000000000057</v>
+        <v>0.3922413302309169</v>
       </c>
       <c r="Y50">
-        <v>0.4000000000000057</v>
+        <v>0.396786289023128</v>
       </c>
       <c r="Z50">
-        <v>0.3</v>
+        <v>0.3974686180055563</v>
       </c>
       <c r="AA50">
-        <v>0.3500000000000085</v>
+        <v>0.4020682245753471</v>
       </c>
       <c r="AB50">
-        <v>0.5</v>
+        <v>0.4233614838172166</v>
       </c>
       <c r="AC50">
-        <v>0.4999999999999858</v>
+        <v>0.3780815975795691</v>
       </c>
       <c r="AD50">
         <v>0.5200000000000102</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>0.5200000000000102</v>
       </c>
-      <c r="BA50">
-        <v>0.5200000000000102</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.3963952892578535</v>
-      </c>
-      <c r="S51">
-        <v>0.3840309660821347</v>
-      </c>
-      <c r="T51">
-        <v>0.4225106925306342</v>
-      </c>
       <c r="U51">
-        <v>0.3804417005697162</v>
+        <v>0.3982250492619256</v>
       </c>
       <c r="V51">
-        <v>0.3534763671905922</v>
+        <v>0.3907674556696997</v>
       </c>
       <c r="W51">
-        <v>0.359169352285386</v>
+        <v>0.3866987494716077</v>
       </c>
       <c r="X51">
-        <v>0.4003099604629804</v>
+        <v>0.3922752089898087</v>
       </c>
       <c r="Y51">
-        <v>0.2799999999999869</v>
+        <v>0.3972060818422388</v>
       </c>
       <c r="Z51">
-        <v>0.3</v>
+        <v>0.3983631517471631</v>
       </c>
       <c r="AA51">
-        <v>0.4299999999999926</v>
+        <v>0.4038251750703569</v>
       </c>
       <c r="AB51">
-        <v>0.5</v>
+        <v>0.4089847378626404</v>
       </c>
       <c r="AC51">
-        <v>0.5200000000000102</v>
+        <v>0.3983738335879979</v>
       </c>
       <c r="AD51">
-        <v>0.5200000000000102</v>
+        <v>0.4553543489866181</v>
       </c>
       <c r="AE51">
         <v>0.5999999999999943</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA51">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.3964252846498862</v>
-      </c>
-      <c r="S52">
-        <v>0.3840307080990002</v>
-      </c>
-      <c r="T52">
-        <v>0.4223283911714063</v>
-      </c>
-      <c r="U52">
-        <v>0.3802824615875964</v>
-      </c>
       <c r="V52">
-        <v>0.3730554984798426</v>
+        <v>0.3907692451718201</v>
       </c>
       <c r="W52">
-        <v>0.3810291893339158</v>
+        <v>0.386706732302827</v>
       </c>
       <c r="X52">
-        <v>0.4004225111749293</v>
+        <v>0.3922487509081118</v>
       </c>
       <c r="Y52">
-        <v>0.2799999999999869</v>
+        <v>0.3971086474586492</v>
       </c>
       <c r="Z52">
-        <v>0.4</v>
+        <v>0.3983871780715771</v>
       </c>
       <c r="AA52">
-        <v>0.4099999999999966</v>
+        <v>0.4057653942449171</v>
       </c>
       <c r="AB52">
-        <v>0.5</v>
+        <v>0.4104609186295701</v>
       </c>
       <c r="AC52">
-        <v>0.4999999999999858</v>
+        <v>0.4083159226801806</v>
       </c>
       <c r="AD52">
-        <v>0.5200000000000102</v>
+        <v>0.4213513590094804</v>
       </c>
       <c r="AE52">
-        <v>0.7999999999999972</v>
+        <v>0.4802216119616939</v>
       </c>
       <c r="AF52">
         <v>0.5</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>0.5</v>
       </c>
-      <c r="BA52">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.4222725166355115</v>
-      </c>
-      <c r="U53">
-        <v>0.3802527048313392</v>
-      </c>
-      <c r="V53">
-        <v>0.3766644161087648</v>
-      </c>
       <c r="W53">
-        <v>0.3841394506511459</v>
+        <v>0.3867079454287469</v>
       </c>
       <c r="X53">
-        <v>0.4004321762411063</v>
+        <v>0.3922360751029564</v>
       </c>
       <c r="Y53">
-        <v>0.2799999999999869</v>
+        <v>0.3970267848398674</v>
       </c>
       <c r="Z53">
-        <v>0.4</v>
+        <v>0.3982989535362706</v>
       </c>
       <c r="AA53">
-        <v>0.3799999999999812</v>
+        <v>0.4063353426373557</v>
       </c>
       <c r="AB53">
-        <v>0.4</v>
+        <v>0.4123203654162005</v>
       </c>
       <c r="AC53">
-        <v>0.4399999999999977</v>
+        <v>0.4102127894895797</v>
       </c>
       <c r="AD53">
-        <v>0.4999999999999858</v>
+        <v>0.4135240156111157</v>
       </c>
       <c r="AE53">
-        <v>0.4999999999999858</v>
+        <v>0.4274222116037619</v>
       </c>
       <c r="AF53">
-        <v>1.4</v>
+        <v>0.3499999990000049</v>
       </c>
       <c r="AG53">
         <v>0.3499999990000049</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>0.3499999990000049</v>
       </c>
-      <c r="BA53">
-        <v>0.3499999990000049</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.4222553946433407</v>
-      </c>
-      <c r="U54">
-        <v>0.3802526029634783</v>
-      </c>
-      <c r="V54">
-        <v>0.3766824993083585</v>
-      </c>
-      <c r="W54">
-        <v>0.383453948411465</v>
-      </c>
       <c r="X54">
-        <v>0.4004243553260978</v>
+        <v>0.3922340428172257</v>
       </c>
       <c r="Y54">
-        <v>0.2799999999999869</v>
+        <v>0.3970072285977251</v>
       </c>
       <c r="Z54">
-        <v>0.4</v>
+        <v>0.3982635358556058</v>
       </c>
       <c r="AA54">
-        <v>0.3599999999999994</v>
+        <v>0.4063744008427982</v>
       </c>
       <c r="AB54">
-        <v>0.3</v>
+        <v>0.412923318711832</v>
       </c>
       <c r="AC54">
-        <v>0.4399999999999977</v>
+        <v>0.4099927755573515</v>
       </c>
       <c r="AD54">
-        <v>0.4999999999999858</v>
+        <v>0.4132274505167631</v>
       </c>
       <c r="AE54">
-        <v>0.4599999999999937</v>
+        <v>0.416783107982258</v>
       </c>
       <c r="AF54">
-        <v>0.8</v>
+        <v>0.3824917402684298</v>
       </c>
       <c r="AG54">
-        <v>0.5999999999999943</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="AH54">
         <v>0.7000000000000171</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>0.7000000000000171</v>
       </c>
-      <c r="BA54">
-        <v>0.7000000000000171</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.4222501481107689</v>
-      </c>
-      <c r="U55">
-        <v>0.380254609945751</v>
-      </c>
-      <c r="V55">
-        <v>0.3764489010407958</v>
-      </c>
-      <c r="W55">
-        <v>0.3829396660613659</v>
-      </c>
-      <c r="X55">
-        <v>0.4004205424715399</v>
-      </c>
       <c r="Y55">
-        <v>0.366302794853111</v>
+        <v>0.3970089633175627</v>
       </c>
       <c r="Z55">
-        <v>0.410083657368515</v>
+        <v>0.3982599475265449</v>
       </c>
       <c r="AA55">
-        <v>0.3965252793597397</v>
+        <v>0.406337688200775</v>
       </c>
       <c r="AB55">
-        <v>0.3747322676185065</v>
+        <v>0.4129962179874975</v>
       </c>
       <c r="AC55">
-        <v>0.4399999999999977</v>
+        <v>0.4097259176818276</v>
       </c>
       <c r="AD55">
-        <v>0.4999999999999858</v>
+        <v>0.4137309611896841</v>
       </c>
       <c r="AE55">
-        <v>0.4899999999999949</v>
+        <v>0.4169753171493931</v>
       </c>
       <c r="AF55">
-        <v>0.3</v>
+        <v>0.4094692521362544</v>
       </c>
       <c r="AG55">
-        <v>0.4000000000000057</v>
+        <v>0.5520811726360189</v>
       </c>
       <c r="AH55">
-        <v>0.4000000000000057</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="AI55">
         <v>0.7000000000000171</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>0.7000000000000171</v>
       </c>
-      <c r="BA55">
-        <v>0.7000000000000171</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.4222485404866441</v>
-      </c>
-      <c r="U56">
-        <v>0.3802553618406189</v>
-      </c>
-      <c r="V56">
-        <v>0.3763621707890592</v>
-      </c>
-      <c r="W56">
-        <v>0.3828071972415457</v>
-      </c>
-      <c r="X56">
-        <v>0.4004199453018564</v>
-      </c>
-      <c r="Y56">
-        <v>0.4012023754972593</v>
-      </c>
       <c r="Z56">
-        <v>0.4143129023245105</v>
+        <v>0.398262460002562</v>
       </c>
       <c r="AA56">
-        <v>0.4142205797948949</v>
+        <v>0.4063203864063242</v>
       </c>
       <c r="AB56">
-        <v>0.4176149038556894</v>
+        <v>0.412971451734604</v>
       </c>
       <c r="AC56">
-        <v>0.4399999999999977</v>
+        <v>0.4096438819594804</v>
       </c>
       <c r="AD56">
-        <v>0.4999999999999858</v>
+        <v>0.4139455674997313</v>
       </c>
       <c r="AE56">
-        <v>0.4899999999999949</v>
+        <v>0.4179166240326211</v>
       </c>
       <c r="AF56">
-        <v>0.4</v>
+        <v>0.4171274038215562</v>
       </c>
       <c r="AG56">
-        <v>0.4000000000000057</v>
+        <v>0.4549324251390006</v>
       </c>
       <c r="AH56">
-        <v>0.4000000000000057</v>
+        <v>0.5177627256732191</v>
       </c>
       <c r="AI56">
-        <v>1.099999999999994</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="AJ56">
         <v>0.7999999999999972</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>0.7999999999999972</v>
       </c>
-      <c r="BA56">
-        <v>0.7999999999999972</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.376345965432017</v>
-      </c>
-      <c r="W57">
-        <v>0.3828014180973726</v>
-      </c>
-      <c r="X57">
-        <v>0.4004201122999871</v>
-      </c>
-      <c r="Y57">
-        <v>0.4042934997409398</v>
-      </c>
-      <c r="Z57">
-        <v>0.4147401747768509</v>
-      </c>
       <c r="AA57">
-        <v>0.4166380961568127</v>
+        <v>0.406317200899783</v>
       </c>
       <c r="AB57">
-        <v>0.4265116995429518</v>
+        <v>0.4129552012025293</v>
       </c>
       <c r="AC57">
-        <v>0.4399999999999977</v>
+        <v>0.4096377606092209</v>
       </c>
       <c r="AD57">
-        <v>0.4799999999999898</v>
+        <v>0.4139874507674614</v>
       </c>
       <c r="AE57">
-        <v>0.4899999999999949</v>
+        <v>0.4182646601426619</v>
       </c>
       <c r="AF57">
-        <v>0.4</v>
+        <v>0.4176347559979326</v>
       </c>
       <c r="AG57">
-        <v>0.4000000000000057</v>
+        <v>0.4315388094597149</v>
       </c>
       <c r="AH57">
-        <v>0.2000000000000028</v>
+        <v>0.431917291419412</v>
       </c>
       <c r="AI57">
-        <v>0.2999999999999829</v>
+        <v>0.5706628428660806</v>
       </c>
       <c r="AJ57">
-        <v>0.4999999999999858</v>
+        <v>-0.7999999999999972</v>
       </c>
       <c r="AK57">
         <v>-0.7999999999999972</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>-0.7999999999999972</v>
       </c>
-      <c r="BA57">
-        <v>-0.7999999999999972</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.376345805209233</v>
-      </c>
-      <c r="W58">
-        <v>0.3828104003852251</v>
-      </c>
-      <c r="X58">
-        <v>0.4004202330559919</v>
-      </c>
-      <c r="Y58">
-        <v>0.4010864702344563</v>
-      </c>
-      <c r="Z58">
-        <v>0.4143546196380479</v>
-      </c>
-      <c r="AA58">
-        <v>0.4152761765167713</v>
-      </c>
       <c r="AB58">
-        <v>0.425101915760823</v>
+        <v>0.4129509854000087</v>
       </c>
       <c r="AC58">
-        <v>0.4399999999999977</v>
+        <v>0.4096432590035704</v>
       </c>
       <c r="AD58">
-        <v>0.4799999999999898</v>
+        <v>0.4139864666864181</v>
       </c>
       <c r="AE58">
-        <v>0.4899999999999949</v>
+        <v>0.4183224211746551</v>
       </c>
       <c r="AF58">
-        <v>0.4</v>
+        <v>0.4171172641200021</v>
       </c>
       <c r="AG58">
-        <v>0.4000000000000057</v>
+        <v>0.432487202815544</v>
       </c>
       <c r="AH58">
-        <v>0.2000000000000028</v>
+        <v>0.4179475660066138</v>
       </c>
       <c r="AI58">
-        <v>0.2000000000000028</v>
+        <v>0.467210115272113</v>
       </c>
       <c r="AJ58">
-        <v>-0.3999999999999915</v>
+        <v>-0.02536397457949008</v>
       </c>
       <c r="AK58">
-        <v>-0.7000000000000028</v>
+        <v>0.4999999999999858</v>
       </c>
       <c r="AL58">
         <v>0.4999999999999858</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA58">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.3763468252183951</v>
-      </c>
-      <c r="W59">
-        <v>0.3828142038601103</v>
-      </c>
-      <c r="X59">
-        <v>0.4004202600924586</v>
-      </c>
-      <c r="Y59">
-        <v>0.3993948263854566</v>
-      </c>
-      <c r="Z59">
-        <v>0.4141358551244049</v>
-      </c>
-      <c r="AA59">
-        <v>0.4143937090960884</v>
-      </c>
-      <c r="AB59">
-        <v>0.4234593406681368</v>
-      </c>
       <c r="AC59">
-        <v>0.4207741153565343</v>
+        <v>0.4096459706340225</v>
       </c>
       <c r="AD59">
-        <v>0.4416187970630625</v>
+        <v>0.413982795860488</v>
       </c>
       <c r="AE59">
-        <v>0.4501756338646527</v>
+        <v>0.4183163753150964</v>
       </c>
       <c r="AF59">
-        <v>0.4216206018144318</v>
+        <v>0.4168642309196648</v>
       </c>
       <c r="AG59">
-        <v>0.4000000000000057</v>
+        <v>0.435372380736826</v>
       </c>
       <c r="AH59">
-        <v>0.2000000000000028</v>
+        <v>0.4238355136411308</v>
       </c>
       <c r="AI59">
-        <v>0.09999999999999432</v>
+        <v>0.4353851466980734</v>
       </c>
       <c r="AJ59">
-        <v>-0.5999999999999943</v>
+        <v>0.4081158513928783</v>
       </c>
       <c r="AK59">
-        <v>0</v>
+        <v>0.447467016733908</v>
       </c>
       <c r="AL59">
-        <v>0.2999999999999829</v>
+        <v>2.842170943040401E-14</v>
       </c>
       <c r="AM59">
         <v>2.842170943040401E-14</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="BA59">
-        <v>2.842170943040401E-14</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.3763472093359356</v>
-      </c>
-      <c r="W60">
-        <v>0.3828148552028416</v>
-      </c>
-      <c r="X60">
-        <v>0.4004202577533041</v>
-      </c>
-      <c r="Y60">
-        <v>0.3991203210853215</v>
-      </c>
-      <c r="Z60">
-        <v>0.4140955876459009</v>
-      </c>
-      <c r="AA60">
-        <v>0.4142119332996576</v>
-      </c>
-      <c r="AB60">
-        <v>0.4229458071237793</v>
-      </c>
-      <c r="AC60">
-        <v>0.4119704520226012</v>
-      </c>
       <c r="AD60">
-        <v>0.4238144233477643</v>
+        <v>0.4139814789457853</v>
       </c>
       <c r="AE60">
-        <v>0.431426700520686</v>
+        <v>0.4183093320503037</v>
       </c>
       <c r="AF60">
-        <v>0.4310348312926608</v>
+        <v>0.4168123718342728</v>
       </c>
       <c r="AG60">
-        <v>0.4000000000000057</v>
+        <v>0.436435593431225</v>
       </c>
       <c r="AH60">
-        <v>0.2000000000000028</v>
+        <v>0.4286381410985764</v>
       </c>
       <c r="AI60">
-        <v>0.09999999999999432</v>
+        <v>0.4273742302636156</v>
       </c>
       <c r="AJ60">
-        <v>0.2000000000000028</v>
+        <v>0.4509367617896466</v>
       </c>
       <c r="AK60">
-        <v>0.09999999999999432</v>
+        <v>0.408262545613676</v>
       </c>
       <c r="AL60">
-        <v>-0.5999999999999943</v>
+        <v>0.3616583724877177</v>
       </c>
       <c r="AM60">
-        <v>-0.2000000000000028</v>
+        <v>0.5000000000000142</v>
       </c>
       <c r="AN60">
         <v>0.5000000000000142</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>0.5000000000000142</v>
       </c>
-      <c r="BA60">
-        <v>0.5000000000000142</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.3992253554636828</v>
-      </c>
-      <c r="Z61">
-        <v>0.4141079119488985</v>
-      </c>
-      <c r="AA61">
-        <v>0.414254660642538</v>
-      </c>
-      <c r="AB61">
-        <v>0.4229281677753393</v>
-      </c>
-      <c r="AC61">
-        <v>0.4096615916051573</v>
-      </c>
-      <c r="AD61">
-        <v>0.4185431813371684</v>
-      </c>
       <c r="AE61">
-        <v>0.4256565255605316</v>
+        <v>0.4183071033989705</v>
       </c>
       <c r="AF61">
-        <v>0.433341258291104</v>
+        <v>0.4168155398008687</v>
       </c>
       <c r="AG61">
-        <v>0.4000000000000057</v>
+        <v>0.4365561620833558</v>
       </c>
       <c r="AH61">
-        <v>0.2000000000000028</v>
+        <v>0.4300452939464504</v>
       </c>
       <c r="AI61">
-        <v>0.09999999999999432</v>
+        <v>0.4256705387106893</v>
       </c>
       <c r="AJ61">
-        <v>0.4999999999999858</v>
+        <v>0.4124701406512482</v>
       </c>
       <c r="AK61">
-        <v>0.09999999999999432</v>
+        <v>0.4039640590258404</v>
       </c>
       <c r="AL61">
-        <v>-0.5999999999999943</v>
+        <v>0.3474372436314077</v>
       </c>
       <c r="AM61">
-        <v>-0.4000000000000057</v>
+        <v>0.3671304603634982</v>
       </c>
       <c r="AN61">
-        <v>0.09999999999999432</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="AO61">
         <v>0.7000000000000171</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>0.7000000000000171</v>
       </c>
-      <c r="BA61">
-        <v>0.7000000000000171</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.3993028869656437</v>
-      </c>
-      <c r="Z62">
-        <v>0.4141184581472176</v>
-      </c>
-      <c r="AA62">
-        <v>0.414296455070925</v>
-      </c>
-      <c r="AB62">
-        <v>0.4229819182498952</v>
-      </c>
-      <c r="AC62">
-        <v>0.4093930459706325</v>
-      </c>
-      <c r="AD62">
-        <v>0.417483977625543</v>
-      </c>
-      <c r="AE62">
-        <v>0.424379021328168</v>
-      </c>
       <c r="AF62">
-        <v>0.4335649069676015</v>
+        <v>0.4168216653009733</v>
       </c>
       <c r="AG62">
-        <v>0.4000000000000057</v>
+        <v>0.4364911035550663</v>
       </c>
       <c r="AH62">
-        <v>0.09999999999999432</v>
+        <v>0.4300105975324485</v>
       </c>
       <c r="AI62">
-        <v>0.09999999999999432</v>
+        <v>0.4253754152197592</v>
       </c>
       <c r="AJ62">
-        <v>0.4999999999999858</v>
+        <v>0.3953261102886929</v>
       </c>
       <c r="AK62">
-        <v>0.09999999999999432</v>
+        <v>0.4043089809738876</v>
       </c>
       <c r="AL62">
-        <v>0.09999999999999432</v>
+        <v>0.3859208193229464</v>
       </c>
       <c r="AM62">
-        <v>0.2999999999999829</v>
+        <v>0.4143209558872814</v>
       </c>
       <c r="AN62">
-        <v>0.2999999999999829</v>
+        <v>0.4524108287478654</v>
       </c>
       <c r="AO62">
-        <v>-0.1999999999999744</v>
+        <v>-0.9999999999999858</v>
       </c>
       <c r="AP62">
         <v>-0.9999999999999858</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>-0.9999999999999858</v>
       </c>
-      <c r="BA62">
-        <v>-0.9999999999999858</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.3993208255962271</v>
-      </c>
-      <c r="Z63">
-        <v>0.4141212356408476</v>
-      </c>
-      <c r="AA63">
-        <v>0.4143079642356113</v>
-      </c>
-      <c r="AB63">
-        <v>0.4230063060560789</v>
-      </c>
-      <c r="AC63">
-        <v>0.4094769218854504</v>
-      </c>
-      <c r="AD63">
-        <v>0.4174029867818407</v>
-      </c>
-      <c r="AE63">
-        <v>0.4242204634631402</v>
-      </c>
       <c r="AF63">
-        <v>0.4334710391686286</v>
+        <v>0.4168237993136725</v>
       </c>
       <c r="AG63">
-        <v>0.4186082027782919</v>
+        <v>0.436451944547225</v>
       </c>
       <c r="AH63">
-        <v>0.273036499941774</v>
+        <v>0.4297898719824808</v>
       </c>
       <c r="AI63">
-        <v>0.2849078607067028</v>
+        <v>0.4253413810136679</v>
       </c>
       <c r="AJ63">
-        <v>0.4364872061171005</v>
+        <v>0.3945691113115007</v>
       </c>
       <c r="AK63">
-        <v>0.09999999999999432</v>
+        <v>0.4044629839956526</v>
       </c>
       <c r="AL63">
-        <v>0.1500000000000057</v>
+        <v>0.3887304467538183</v>
       </c>
       <c r="AM63">
-        <v>0.2000000000000028</v>
+        <v>0.4029065645805099</v>
       </c>
       <c r="AN63">
-        <v>0.2000000000000028</v>
+        <v>0.4458565130046671</v>
       </c>
       <c r="AO63">
-        <v>0.4999999999999858</v>
+        <v>0.412560626620353</v>
       </c>
       <c r="AP63">
-        <v>0.2000000000000028</v>
+        <v>-0.5</v>
       </c>
       <c r="AQ63">
         <v>-0.5</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>-0.5</v>
       </c>
-      <c r="BA63">
-        <v>-0.5</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.3993181781459134</v>
-      </c>
-      <c r="Z64">
-        <v>0.4141209922596444</v>
-      </c>
-      <c r="AA64">
-        <v>0.414307134132853</v>
-      </c>
-      <c r="AB64">
-        <v>0.4230100280587196</v>
-      </c>
-      <c r="AC64">
-        <v>0.4095393875407783</v>
-      </c>
-      <c r="AD64">
-        <v>0.4174478733700893</v>
-      </c>
-      <c r="AE64">
-        <v>0.4242438683758559</v>
-      </c>
-      <c r="AF64">
-        <v>0.4334116213057403</v>
-      </c>
       <c r="AG64">
-        <v>0.4262768399822342</v>
+        <v>0.4364430963393837</v>
       </c>
       <c r="AH64">
-        <v>0.354979120191307</v>
+        <v>0.4296909355698739</v>
       </c>
       <c r="AI64">
-        <v>0.3721918164375906</v>
+        <v>0.4253427911130678</v>
       </c>
       <c r="AJ64">
-        <v>0.3966983846787723</v>
+        <v>0.3963831636643834</v>
       </c>
       <c r="AK64">
-        <v>0.09999999999999432</v>
+        <v>0.4044764876931041</v>
       </c>
       <c r="AL64">
-        <v>0.2000000000000028</v>
+        <v>0.3933181828596425</v>
       </c>
       <c r="AM64">
-        <v>0.2000000000000028</v>
+        <v>0.4074671509658725</v>
       </c>
       <c r="AN64">
-        <v>0.3500000000000085</v>
+        <v>0.4238468141494176</v>
       </c>
       <c r="AO64">
-        <v>0.4999999999999858</v>
+        <v>0.3200453823892611</v>
       </c>
       <c r="AP64">
-        <v>0.7999999999999972</v>
+        <v>0.2156443022569162</v>
       </c>
       <c r="AQ64">
-        <v>0.4000000000000057</v>
+        <v>2.799999999999997</v>
       </c>
       <c r="AR64">
         <v>2.799999999999997</v>
@@ -8950,58 +8065,40 @@
       <c r="AZ64">
         <v>2.799999999999997</v>
       </c>
-      <c r="BA64">
-        <v>2.799999999999997</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.4095604767645794</v>
-      </c>
-      <c r="AD65">
-        <v>0.4174750004500334</v>
-      </c>
-      <c r="AE65">
-        <v>0.424267056999055</v>
-      </c>
-      <c r="AF65">
-        <v>0.4333935326616442</v>
-      </c>
-      <c r="AG65">
-        <v>0.4277512439981484</v>
-      </c>
       <c r="AH65">
-        <v>0.3847141813524936</v>
+        <v>0.429676389367956</v>
       </c>
       <c r="AI65">
-        <v>0.4029587271832017</v>
+        <v>0.4253452345089975</v>
       </c>
       <c r="AJ65">
-        <v>0.3916706013785219</v>
+        <v>0.3970406626630336</v>
       </c>
       <c r="AK65">
-        <v>0.09999999999999432</v>
+        <v>0.4044746514138913</v>
       </c>
       <c r="AL65">
-        <v>0.2000000000000028</v>
+        <v>0.3941526862001591</v>
       </c>
       <c r="AM65">
-        <v>0.2000000000000028</v>
+        <v>0.4065345851949104</v>
       </c>
       <c r="AN65">
-        <v>0.2999999999999829</v>
+        <v>0.4211629919120637</v>
       </c>
       <c r="AO65">
-        <v>0.2999999999999829</v>
+        <v>0.3912288228421609</v>
       </c>
       <c r="AP65">
-        <v>0.4000000000000057</v>
+        <v>0.3511344564027883</v>
       </c>
       <c r="AQ65">
-        <v>0.4000000000000057</v>
+        <v>0.8301991077514008</v>
       </c>
       <c r="AR65">
         <v>0</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>0</v>
       </c>
-      <c r="BA65">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.4095645375283286</v>
-      </c>
-      <c r="AD66">
-        <v>0.4174840899027223</v>
-      </c>
-      <c r="AE66">
-        <v>0.4242761775822919</v>
-      </c>
-      <c r="AF66">
-        <v>0.4333905833262419</v>
-      </c>
-      <c r="AG66">
-        <v>0.4276640749953475</v>
-      </c>
-      <c r="AH66">
-        <v>0.3947162214270187</v>
-      </c>
       <c r="AI66">
-        <v>0.4125563819558785</v>
+        <v>0.4253462028363081</v>
       </c>
       <c r="AJ66">
-        <v>0.4009867727309296</v>
+        <v>0.397029169944124</v>
       </c>
       <c r="AK66">
-        <v>0.09999999999999432</v>
+        <v>0.4044740604692842</v>
       </c>
       <c r="AL66">
-        <v>0.1999999999999744</v>
+        <v>0.3947565464392851</v>
       </c>
       <c r="AM66">
+        <v>0.406991491019873</v>
+      </c>
+      <c r="AN66">
+        <v>0.4190042333519067</v>
+      </c>
+      <c r="AO66">
+        <v>0.3862240109259895</v>
+      </c>
+      <c r="AP66">
+        <v>0.368180654509728</v>
+      </c>
+      <c r="AQ66">
+        <v>-0.9099657077905133</v>
+      </c>
+      <c r="AR66">
+        <v>-0.6303000602653097</v>
+      </c>
+      <c r="AS66">
         <v>0.2000000000000028</v>
-      </c>
-      <c r="AN66">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="AO66">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="AP66">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="AQ66">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="AR66">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="AS66">
-        <v>0.2999999999999829</v>
       </c>
       <c r="AT66">
         <v>0.2000000000000028</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA66">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.4095645076510708</v>
-      </c>
-      <c r="AD67">
-        <v>0.4174861945545386</v>
-      </c>
-      <c r="AE67">
-        <v>0.4242786916668234</v>
-      </c>
-      <c r="AF67">
-        <v>0.4333907990264841</v>
-      </c>
-      <c r="AG67">
-        <v>0.4274945691922866</v>
-      </c>
-      <c r="AH67">
-        <v>0.3979912519720004</v>
-      </c>
-      <c r="AI67">
-        <v>0.4153506380464936</v>
-      </c>
       <c r="AJ67">
-        <v>0.4083982843127263</v>
+        <v>0.3969469329947115</v>
       </c>
       <c r="AK67">
-        <v>0.2445817525072754</v>
+        <v>0.404474021165896</v>
       </c>
       <c r="AL67">
-        <v>0.308156870492511</v>
+        <v>0.3949179173118838</v>
       </c>
       <c r="AM67">
-        <v>0.3114847454716131</v>
+        <v>0.4069232883263717</v>
       </c>
       <c r="AN67">
-        <v>0.3819844131845069</v>
+        <v>0.4185647638823673</v>
       </c>
       <c r="AO67">
-        <v>0.2999999999999687</v>
+        <v>0.3898129748817985</v>
       </c>
       <c r="AP67">
-        <v>0.2999999999999829</v>
+        <v>0.3696953532746353</v>
       </c>
       <c r="AQ67">
-        <v>0.2999999999999829</v>
+        <v>0.2202984374476723</v>
       </c>
       <c r="AR67">
-        <v>0.4000000000000057</v>
+        <v>0.7756873262974416</v>
       </c>
       <c r="AS67">
-        <v>0.4999999999999858</v>
+        <v>0.5871048547205837</v>
       </c>
       <c r="AT67">
-        <v>0.2000000000000028</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="AU67">
         <v>-0.09999999999999432</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="BA67">
-        <v>-0.09999999999999432</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.4095641301768306</v>
-      </c>
-      <c r="AD68">
-        <v>0.4174864632707451</v>
-      </c>
-      <c r="AE68">
-        <v>0.4242791752406235</v>
-      </c>
-      <c r="AF68">
-        <v>0.4333911375098883</v>
-      </c>
-      <c r="AG68">
-        <v>0.4274326116599734</v>
-      </c>
-      <c r="AH68">
-        <v>0.3990526816809508</v>
-      </c>
-      <c r="AI68">
-        <v>0.4161280292243015</v>
-      </c>
-      <c r="AJ68">
-        <v>0.4101225928666372</v>
-      </c>
       <c r="AK68">
-        <v>0.3271083961527085</v>
+        <v>0.4044740299933323</v>
       </c>
       <c r="AL68">
-        <v>0.3417997016660976</v>
+        <v>0.3950032740263381</v>
       </c>
       <c r="AM68">
-        <v>0.3349601852644449</v>
+        <v>0.4069714543956096</v>
       </c>
       <c r="AN68">
-        <v>0.3880814556729508</v>
+        <v>0.4183360701911741</v>
       </c>
       <c r="AO68">
-        <v>0.3000000000000114</v>
+        <v>0.3895436066297331</v>
       </c>
       <c r="AP68">
-        <v>0.4999999999999858</v>
+        <v>0.3697605629316595</v>
       </c>
       <c r="AQ68">
-        <v>0.2999999999999829</v>
+        <v>1.135052883540144</v>
       </c>
       <c r="AR68">
+        <v>0.8146297118950607</v>
+      </c>
+      <c r="AS68">
+        <v>0.453656795882078</v>
+      </c>
+      <c r="AT68">
+        <v>0.5692384310910868</v>
+      </c>
+      <c r="AU68">
         <v>0.2000000000000028</v>
-      </c>
-      <c r="AS68">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="AT68">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="AU68">
-        <v>-0.0999999999999801</v>
       </c>
       <c r="AV68">
         <v>0.2000000000000028</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA68">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.427422435707295</v>
-      </c>
-      <c r="AH69">
-        <v>0.399395314397645</v>
-      </c>
-      <c r="AI69">
-        <v>0.4163373050549097</v>
-      </c>
-      <c r="AJ69">
-        <v>0.4088807768116163</v>
-      </c>
-      <c r="AK69">
-        <v>0.3542465071736206</v>
-      </c>
       <c r="AL69">
-        <v>0.355441151895282</v>
+        <v>0.3950308981162123</v>
       </c>
       <c r="AM69">
-        <v>0.3570827455381905</v>
+        <v>0.4069678642386714</v>
       </c>
       <c r="AN69">
-        <v>0.4020819049030864</v>
+        <v>0.4182761166888818</v>
       </c>
       <c r="AO69">
-        <v>0.2999999999999829</v>
+        <v>0.3897246465179414</v>
       </c>
       <c r="AP69">
+        <v>0.3697525493380109</v>
+      </c>
+      <c r="AQ69">
+        <v>0.4891407823744168</v>
+      </c>
+      <c r="AR69">
+        <v>0.1583991443595379</v>
+      </c>
+      <c r="AS69">
+        <v>0.3612184878417117</v>
+      </c>
+      <c r="AT69">
+        <v>0.5315347339533495</v>
+      </c>
+      <c r="AU69">
+        <v>0.5969365066239489</v>
+      </c>
+      <c r="AV69">
         <v>0.09999999999999432</v>
-      </c>
-      <c r="AQ69">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="AR69">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="AS69">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="AT69">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="AU69">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="AV69">
-        <v>0.2000000000000028</v>
       </c>
       <c r="AW69">
         <v>0.09999999999999432</v>
@@ -9338,61 +8345,40 @@
       <c r="AZ69">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA69">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.4274238555063211</v>
-      </c>
-      <c r="AH70">
-        <v>0.399505742793988</v>
-      </c>
-      <c r="AI70">
-        <v>0.4163922223108402</v>
-      </c>
-      <c r="AJ70">
-        <v>0.4075625874666263</v>
-      </c>
-      <c r="AK70">
-        <v>0.3583393225221642</v>
-      </c>
-      <c r="AL70">
-        <v>0.3606725208291831</v>
-      </c>
       <c r="AM70">
-        <v>0.3653585759052945</v>
+        <v>0.4069732829199469</v>
       </c>
       <c r="AN70">
-        <v>0.4041305638964491</v>
+        <v>0.4182506002980337</v>
       </c>
       <c r="AO70">
-        <v>0.2999999999999829</v>
+        <v>0.3897102124182644</v>
       </c>
       <c r="AP70">
-        <v>0.09999999999996589</v>
+        <v>0.3697500508831968</v>
       </c>
       <c r="AQ70">
-        <v>0.2999999999999829</v>
+        <v>0.00990586132082405</v>
       </c>
       <c r="AR70">
-        <v>0.2000000000000028</v>
+        <v>0.2580880179001922</v>
       </c>
       <c r="AS70">
-        <v>0.2000000000000028</v>
+        <v>0.4190975378379914</v>
       </c>
       <c r="AT70">
-        <v>0.2999999999999829</v>
+        <v>0.3477618035463935</v>
       </c>
       <c r="AU70">
-        <v>0.2000000000000028</v>
+        <v>0.4417417096897768</v>
       </c>
       <c r="AV70">
-        <v>0.2999999999999829</v>
+        <v>0.5153374391983074</v>
       </c>
       <c r="AW70">
         <v>0.09999999999999432</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.09999999999999432</v>
       </c>
-      <c r="BA70">
-        <v>0.09999999999999432</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.4274253625723984</v>
-      </c>
-      <c r="AH71">
-        <v>0.3995413109373251</v>
-      </c>
-      <c r="AI71">
-        <v>0.4164063357145198</v>
-      </c>
-      <c r="AJ71">
-        <v>0.4071258458401783</v>
-      </c>
-      <c r="AK71">
-        <v>0.35692752258204</v>
-      </c>
-      <c r="AL71">
-        <v>0.3627004286993679</v>
-      </c>
-      <c r="AM71">
-        <v>0.3705102154404795</v>
-      </c>
       <c r="AN71">
-        <v>0.4065963394425792</v>
+        <v>0.4182429680942754</v>
       </c>
       <c r="AO71">
-        <v>0.417699688479506</v>
+        <v>0.3897193491558</v>
       </c>
       <c r="AP71">
-        <v>0.4269041509517754</v>
+        <v>0.3697496647230256</v>
       </c>
       <c r="AQ71">
-        <v>0.3717750838423814</v>
+        <v>0.3776590177986626</v>
       </c>
       <c r="AR71">
-        <v>0.532872362937617</v>
+        <v>0.5432422444949826</v>
       </c>
       <c r="AS71">
-        <v>0.2999999999999829</v>
+        <v>0.4362836697247521</v>
       </c>
       <c r="AT71">
-        <v>0.4000000000000057</v>
+        <v>0.3923356153120028</v>
       </c>
       <c r="AU71">
-        <v>0.4000000000000057</v>
+        <v>0.3548334318012728</v>
       </c>
       <c r="AV71">
-        <v>0.3599999999999994</v>
+        <v>0.473444131739432</v>
       </c>
       <c r="AW71">
-        <v>0.2000000000000028</v>
+        <v>0.5376287008443567</v>
       </c>
       <c r="AX71">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
       <c r="AY71">
         <v>0</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>0</v>
       </c>
-      <c r="BA71">
-        <v>0</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.4274258550150045</v>
-      </c>
-      <c r="AH72">
-        <v>0.3995527643247004</v>
-      </c>
-      <c r="AI72">
-        <v>0.4164098987453312</v>
-      </c>
-      <c r="AJ72">
-        <v>0.4072652321477431</v>
-      </c>
-      <c r="AK72">
-        <v>0.35555642704831</v>
-      </c>
-      <c r="AL72">
-        <v>0.3634848706641953</v>
-      </c>
-      <c r="AM72">
-        <v>0.3728702702788345</v>
-      </c>
-      <c r="AN72">
-        <v>0.4071182333736307</v>
-      </c>
       <c r="AO72">
-        <v>0.4182852238792306</v>
+        <v>0.3897185786736537</v>
       </c>
       <c r="AP72">
-        <v>0.4320228973596313</v>
+        <v>0.3697496224977785</v>
       </c>
       <c r="AQ72">
-        <v>0.3840791392184411</v>
+        <v>0.6278057782132888</v>
       </c>
       <c r="AR72">
-        <v>0.4647074934015502</v>
+        <v>0.4460763786714675</v>
       </c>
       <c r="AS72">
-        <v>0.2000000000000028</v>
+        <v>0.4154843159323514</v>
       </c>
       <c r="AT72">
-        <v>0.4000000000000057</v>
+        <v>0.4365003109351039</v>
       </c>
       <c r="AU72">
-        <v>0.4000000000000057</v>
+        <v>0.4145028726318932</v>
       </c>
       <c r="AV72">
-        <v>0.3599999999999994</v>
+        <v>0.3686902627023766</v>
       </c>
       <c r="AW72">
-        <v>0.2999999999999829</v>
+        <v>0.4683966559051914</v>
       </c>
       <c r="AX72">
-        <v>0.2000000000000028</v>
+        <v>0.5347400573620333</v>
       </c>
       <c r="AY72">
-        <v>0</v>
+        <v>0.4999999999999858</v>
       </c>
       <c r="AZ72">
         <v>0.4999999999999858</v>
       </c>
-      <c r="BA72">
-        <v>0.4999999999999858</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.3549687909681677</v>
-      </c>
-      <c r="AL73">
-        <v>0.3637884371515315</v>
-      </c>
-      <c r="AM73">
-        <v>0.3741610744220079</v>
-      </c>
-      <c r="AN73">
-        <v>0.4075644880307385</v>
-      </c>
-      <c r="AO73">
-        <v>0.4232562215954268</v>
-      </c>
       <c r="AP73">
-        <v>0.3986335928490052</v>
+        <v>0.3697496194460507</v>
       </c>
       <c r="AQ73">
-        <v>0.3830376482651896</v>
+        <v>0.4191366450824252</v>
       </c>
       <c r="AR73">
-        <v>0.3965077617092039</v>
+        <v>0.3318229432898679</v>
       </c>
       <c r="AS73">
-        <v>0.2000000000000028</v>
+        <v>0.4141752380761457</v>
       </c>
       <c r="AT73">
-        <v>0.4000000000000057</v>
+        <v>0.4156681281589414</v>
       </c>
       <c r="AU73">
-        <v>0.4000000000000057</v>
+        <v>0.4290594657047431</v>
       </c>
       <c r="AV73">
-        <v>0.3599999999999994</v>
+        <v>0.3973047218584303</v>
       </c>
       <c r="AW73">
-        <v>0.2999999999999829</v>
+        <v>0.3633211436781204</v>
       </c>
       <c r="AX73">
-        <v>0.2999999999999829</v>
+        <v>0.4819467627449523</v>
       </c>
       <c r="AY73">
-        <v>0.09999999999999432</v>
+        <v>0.4862746096386609</v>
       </c>
       <c r="AZ73">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="BA73">
         <v>0.4000000000000199</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.3548227286199001</v>
-      </c>
-      <c r="AL74">
-        <v>0.3639059029515093</v>
-      </c>
-      <c r="AM74">
-        <v>0.3747965544034417</v>
-      </c>
-      <c r="AN74">
-        <v>0.407683912468068</v>
-      </c>
-      <c r="AO74">
-        <v>0.4233056667954726</v>
-      </c>
-      <c r="AP74">
-        <v>0.3975867017812005</v>
-      </c>
       <c r="AQ74">
-        <v>0.3823189985708442</v>
+        <v>0.2890919507536268</v>
       </c>
       <c r="AR74">
-        <v>0.4272977654845468</v>
+        <v>0.3971788192343623</v>
       </c>
       <c r="AS74">
-        <v>0.2000000000000171</v>
+        <v>0.4207352090949287</v>
       </c>
       <c r="AT74">
-        <v>0.4000000000000199</v>
+        <v>0.4069173098059841</v>
       </c>
       <c r="AU74">
-        <v>0.4000000000000057</v>
+        <v>0.4094002518907354</v>
       </c>
       <c r="AV74">
-        <v>0.3599999999999994</v>
+        <v>0.4207360600414557</v>
       </c>
       <c r="AW74">
-        <v>0.2999999999999829</v>
+        <v>0.3982992903078846</v>
       </c>
       <c r="AX74">
-        <v>0.2999999999999829</v>
+        <v>0.35511101192207</v>
       </c>
       <c r="AY74">
-        <v>0.2000000000000028</v>
+        <v>0.3628428813247983</v>
       </c>
       <c r="AZ74">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="BA74">
-        <v>0.4000000000000057</v>
+        <v>0.3751928274979941</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.3548205134772529</v>
-      </c>
-      <c r="AL75">
-        <v>0.3639513573586782</v>
-      </c>
-      <c r="AM75">
-        <v>0.3751292753044683</v>
-      </c>
-      <c r="AN75">
-        <v>0.4077665325353619</v>
-      </c>
-      <c r="AO75">
-        <v>0.4235157377848586</v>
-      </c>
-      <c r="AP75">
-        <v>0.4009888092657926</v>
-      </c>
-      <c r="AQ75">
-        <v>0.3822415223283555</v>
-      </c>
       <c r="AR75">
-        <v>0.4378254737492808</v>
+        <v>0.43821878825456</v>
       </c>
       <c r="AS75">
-        <v>0.5138413897181888</v>
+        <v>0.4199000244391332</v>
       </c>
       <c r="AT75">
-        <v>0.4326785006569174</v>
+        <v>0.4144647480697978</v>
       </c>
       <c r="AU75">
-        <v>0.4044314628064261</v>
+        <v>0.4086444614299276</v>
       </c>
       <c r="AV75">
-        <v>0.4329074507062203</v>
+        <v>0.409160574262582</v>
       </c>
       <c r="AW75">
-        <v>0.2999999999999829</v>
+        <v>0.420624338052731</v>
       </c>
       <c r="AX75">
-        <v>0.2999999999999829</v>
+        <v>0.3868823814498097</v>
       </c>
       <c r="AY75">
-        <v>0.2000000000000028</v>
+        <v>0.3841388006171382</v>
       </c>
       <c r="AZ75">
-        <v>0.2999999999999829</v>
-      </c>
-      <c r="BA75">
-        <v>0.4000000000000057</v>
+        <v>0.4036026287271018</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.3548394213067709</v>
-      </c>
-      <c r="AL76">
-        <v>0.3639689462794845</v>
-      </c>
-      <c r="AM76">
-        <v>0.3752972613471658</v>
-      </c>
-      <c r="AN76">
-        <v>0.4077924104249983</v>
-      </c>
-      <c r="AO76">
-        <v>0.4235188699252345</v>
-      </c>
-      <c r="AP76">
-        <v>0.4011492642459934</v>
-      </c>
-      <c r="AQ76">
-        <v>0.382259787564468</v>
-      </c>
-      <c r="AR76">
-        <v>0.428070152603138</v>
-      </c>
       <c r="AS76">
-        <v>0.4553362991497945</v>
+        <v>0.4180655578491537</v>
       </c>
       <c r="AT76">
-        <v>0.4263679710627016</v>
+        <v>0.415569126961197</v>
       </c>
       <c r="AU76">
-        <v>0.403844759045851</v>
+        <v>0.4144183010575332</v>
       </c>
       <c r="AV76">
-        <v>0.4206918860795654</v>
+        <v>0.4047765008677058</v>
       </c>
       <c r="AW76">
-        <v>0.2999999999999687</v>
+        <v>0.4078188494212833</v>
       </c>
       <c r="AX76">
-        <v>0.1999999999999744</v>
+        <v>0.4141606765150472</v>
       </c>
       <c r="AY76">
-        <v>0.2000000000000028</v>
+        <v>0.4120194310101356</v>
       </c>
       <c r="AZ76">
-        <v>0.7000000000000171</v>
-      </c>
-      <c r="BA76">
-        <v>0.6000000000000227</v>
+        <v>0.4056507039390353</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.4235277525695102</v>
-      </c>
-      <c r="AP77">
-        <v>0.4008034584339097</v>
-      </c>
-      <c r="AQ77">
-        <v>0.3822663196653083</v>
-      </c>
-      <c r="AR77">
-        <v>0.427469413932889</v>
-      </c>
-      <c r="AS77">
-        <v>0.3774811504961362</v>
-      </c>
       <c r="AT77">
-        <v>0.4177333116137231</v>
+        <v>0.4132150295992528</v>
       </c>
       <c r="AU77">
-        <v>0.4028389535512793</v>
+        <v>0.4136301825129521</v>
       </c>
       <c r="AV77">
-        <v>0.4029352885823655</v>
+        <v>0.4086154217728639</v>
       </c>
       <c r="AW77">
-        <v>0.2999999999999829</v>
+        <v>0.4039256448004946</v>
       </c>
       <c r="AX77">
-        <v>0.2000000000000028</v>
+        <v>0.4021910415138598</v>
       </c>
       <c r="AY77">
-        <v>0.2000000000000028</v>
+        <v>0.4026450464447231</v>
       </c>
       <c r="AZ77">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="BA77">
-        <v>0.5999999999999943</v>
+        <v>0.398302719137317</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.4235279289662524</v>
-      </c>
-      <c r="AP78">
-        <v>0.4007816158448964</v>
-      </c>
-      <c r="AQ78">
-        <v>0.3822666376414661</v>
-      </c>
-      <c r="AR78">
-        <v>0.4300002058627631</v>
-      </c>
-      <c r="AS78">
-        <v>0.4085411665641102</v>
-      </c>
-      <c r="AT78">
-        <v>0.4213035092761327</v>
-      </c>
       <c r="AU78">
-        <v>0.4031155649060127</v>
+        <v>0.4121102501872904</v>
       </c>
       <c r="AV78">
-        <v>0.4092284092053082</v>
+        <v>0.4091586062344266</v>
       </c>
       <c r="AW78">
-        <v>0.2999999999999829</v>
+        <v>0.4079366440220706</v>
       </c>
       <c r="AX78">
-        <v>0.2000000000000028</v>
+        <v>0.3970731484736917</v>
       </c>
       <c r="AY78">
-        <v>0.2000000000000028</v>
+        <v>0.3970075463717993</v>
       </c>
       <c r="AZ78">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="BA78">
-        <v>0.4999999999999858</v>
+        <v>0.3988572308932437</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.4235283047787709</v>
-      </c>
-      <c r="AP79">
-        <v>0.4008166784936823</v>
-      </c>
-      <c r="AQ79">
-        <v>0.3822664054105145</v>
-      </c>
-      <c r="AR79">
-        <v>0.4296302280654735</v>
-      </c>
-      <c r="AS79">
-        <v>0.4247702753339775</v>
-      </c>
-      <c r="AT79">
-        <v>0.423217608825128</v>
-      </c>
-      <c r="AU79">
-        <v>0.4033248599941975</v>
-      </c>
       <c r="AV79">
-        <v>0.4129970945892556</v>
+        <v>0.4080362910172591</v>
       </c>
       <c r="AW79">
-        <v>0.4375483863028508</v>
+        <v>0.4083343113811461</v>
       </c>
       <c r="AX79">
-        <v>0.4577815998241282</v>
+        <v>0.400830568935326</v>
       </c>
       <c r="AY79">
-        <v>0.4259815148126938</v>
+        <v>0.4001743662895678</v>
       </c>
       <c r="AZ79">
-        <v>0.3622812940086385</v>
-      </c>
-      <c r="BA79">
-        <v>0.4000000000000057</v>
+        <v>0.4006009004356008</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.4235283140940505</v>
-      </c>
-      <c r="AP80">
-        <v>0.4008194638249711</v>
-      </c>
-      <c r="AQ80">
-        <v>0.3822663516420654</v>
-      </c>
-      <c r="AR80">
-        <v>0.4290813501584821</v>
-      </c>
-      <c r="AS80">
-        <v>0.4129604333200169</v>
-      </c>
-      <c r="AT80">
-        <v>0.4217714852853047</v>
-      </c>
-      <c r="AU80">
-        <v>0.4032295195378012</v>
-      </c>
-      <c r="AV80">
-        <v>0.4106563024284652</v>
-      </c>
       <c r="AW80">
-        <v>0.4175887579743258</v>
+        <v>0.407207970464963</v>
       </c>
       <c r="AX80">
-        <v>0.4245492100654517</v>
+        <v>0.4015704082630377</v>
       </c>
       <c r="AY80">
-        <v>0.4044283748697974</v>
+        <v>0.4011303947612992</v>
       </c>
       <c r="AZ80">
-        <v>0.4074528708467943</v>
-      </c>
-      <c r="BA80">
-        <v>0.4000000000000057</v>
+        <v>0.4002110433498579</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.4105720192620729</v>
-      </c>
-      <c r="AT81">
-        <v>0.4214736026236082</v>
-      </c>
-      <c r="AU81">
-        <v>0.4031909699888841</v>
-      </c>
-      <c r="AV81">
-        <v>0.4100248399780286</v>
-      </c>
-      <c r="AW81">
-        <v>0.3863650606939131</v>
-      </c>
       <c r="AX81">
-        <v>0.3686541833792908</v>
+        <v>0.4005172539866847</v>
       </c>
       <c r="AY81">
-        <v>0.3613594348266581</v>
+        <v>0.4001977692272451</v>
       </c>
       <c r="AZ81">
-        <v>0.4353839467614363</v>
-      </c>
-      <c r="BA81">
-        <v>0.4000000000000057</v>
+        <v>0.3998346309239917</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.4143573484207994</v>
-      </c>
-      <c r="AT82">
-        <v>0.4219671644829351</v>
-      </c>
-      <c r="AU82">
-        <v>0.4032193842745279</v>
-      </c>
-      <c r="AV82">
-        <v>0.4107664525882275</v>
-      </c>
-      <c r="AW82">
-        <v>0.3958470813238817</v>
-      </c>
-      <c r="AX82">
-        <v>0.3836181114541298</v>
-      </c>
       <c r="AY82">
-        <v>0.3697709520099556</v>
+        <v>0.4000928595086117</v>
       </c>
       <c r="AZ82">
-        <v>0.4199828308244892</v>
-      </c>
-      <c r="BA82">
-        <v>0.4000000000000057</v>
+        <v>0.3999858466967313</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.4143271995795307</v>
-      </c>
-      <c r="AT83">
-        <v>0.4219616711276307</v>
-      </c>
-      <c r="AU83">
-        <v>0.4032250476371258</v>
-      </c>
-      <c r="AV83">
-        <v>0.410813715589554</v>
-      </c>
-      <c r="AW83">
-        <v>0.4022164477821998</v>
-      </c>
-      <c r="AX83">
-        <v>0.3947377306092248</v>
-      </c>
-      <c r="AY83">
-        <v>0.3775688174928251</v>
-      </c>
       <c r="AZ83">
-        <v>0.4152288664171751</v>
-      </c>
-      <c r="BA83">
-        <v>0.419094190273413</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.4132622431488686</v>
-      </c>
-      <c r="AT84">
-        <v>0.4218139122495403</v>
-      </c>
-      <c r="AU84">
-        <v>0.4032173506103152</v>
-      </c>
-      <c r="AV84">
-        <v>0.4106043580725505</v>
-      </c>
-      <c r="AW84">
-        <v>0.3989400947276567</v>
-      </c>
-      <c r="AX84">
-        <v>0.3898108880461342</v>
-      </c>
-      <c r="AY84">
-        <v>0.3751454568406879</v>
-      </c>
-      <c r="AZ84">
-        <v>0.4197837003570328</v>
-      </c>
-      <c r="BA84">
-        <v>0.4164060485885133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.397835550866223</v>
-      </c>
-      <c r="AX85">
-        <v>0.3878501604624573</v>
-      </c>
-      <c r="AY85">
-        <v>0.3738194881412301</v>
-      </c>
-      <c r="AZ85">
-        <v>0.4203106097380631</v>
-      </c>
-      <c r="BA85">
-        <v>0.4122625319140316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.3988085580661493</v>
-      </c>
-      <c r="AX86">
-        <v>0.3892531050930269</v>
-      </c>
-      <c r="AY86">
-        <v>0.3744298563549574</v>
-      </c>
-      <c r="AZ86">
-        <v>0.4190918464163257</v>
-      </c>
-      <c r="BA86">
-        <v>0.4134824859378962</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.3989413565315049</v>
-      </c>
-      <c r="AX87">
-        <v>0.3895299747218144</v>
-      </c>
-      <c r="AY87">
-        <v>0.3746364150032067</v>
-      </c>
-      <c r="AZ87">
-        <v>0.4191376564519679</v>
-      </c>
-      <c r="BA87">
-        <v>0.4142920209415823</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.3986807235281709</v>
-      </c>
-      <c r="AX88">
-        <v>0.3891667634487545</v>
-      </c>
-      <c r="AY88">
-        <v>0.3744948343963295</v>
-      </c>
-      <c r="AZ88">
-        <v>0.4194365013795392</v>
-      </c>
-      <c r="BA88">
-        <v>0.4138891376388089</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.4137541395566449</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.413868557444922</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.4138844201072744</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.4138550900120575</v>
+        <v>0.4000574047200305</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>0.4297128628298554</v>
       </c>
       <c r="AG64">
-        <v>0.3499999990000049</v>
+        <v>0.4366385111416097</v>
       </c>
       <c r="AH64">
         <v>0.760290197271857</v>
@@ -9166,10 +9166,10 @@
         <v>0.481879595062938</v>
       </c>
       <c r="AG65">
-        <v>0.7400559240030766</v>
+        <v>0.7295197183084787</v>
       </c>
       <c r="AH65">
-        <v>0.7000000000000171</v>
+        <v>0.9275912302322158</v>
       </c>
       <c r="AI65">
         <v>-0.5062757877985717</v>
@@ -9255,13 +9255,13 @@
         <v>0.475970741254258</v>
       </c>
       <c r="AG66">
-        <v>0.4544976647662438</v>
+        <v>0.4701978172126098</v>
       </c>
       <c r="AH66">
-        <v>0.5799273225930315</v>
+        <v>0.5850533844672896</v>
       </c>
       <c r="AI66">
-        <v>0.7000000000000171</v>
+        <v>0.6003570629444777</v>
       </c>
       <c r="AJ66">
         <v>0.1999914549530217</v>
@@ -9341,16 +9341,16 @@
         <v>0.4882961438157917</v>
       </c>
       <c r="AG67">
-        <v>0.5704807921204744</v>
+        <v>0.5633811691987478</v>
       </c>
       <c r="AH67">
-        <v>0.5722224204703679</v>
+        <v>0.6361557577498194</v>
       </c>
       <c r="AI67">
-        <v>0.358923765212929</v>
+        <v>0.4200271841838043</v>
       </c>
       <c r="AJ67">
-        <v>0.7999999999999972</v>
+        <v>0.4065181709025916</v>
       </c>
       <c r="AK67">
         <v>1.809651846369789</v>
@@ -9424,19 +9424,19 @@
         <v>0.4856751776414768</v>
       </c>
       <c r="AG68">
-        <v>0.4948870265411907</v>
+        <v>0.4951259448051447</v>
       </c>
       <c r="AH68">
-        <v>0.5479489494887432</v>
+        <v>0.5550893589975171</v>
       </c>
       <c r="AI68">
-        <v>0.5140557918623316</v>
+        <v>0.5157841789690363</v>
       </c>
       <c r="AJ68">
-        <v>0.3778087578829589</v>
+        <v>0.409160426819199</v>
       </c>
       <c r="AK68">
-        <v>-0.7999999999999972</v>
+        <v>0.01099376095066101</v>
       </c>
       <c r="AL68">
         <v>-2.218509177329452</v>
@@ -9504,22 +9504,22 @@
         <v>0.4887160103500734</v>
       </c>
       <c r="AG69">
-        <v>0.5284419400128499</v>
+        <v>0.5232846039129652</v>
       </c>
       <c r="AH69">
-        <v>0.547308750522738</v>
+        <v>0.5698448235725169</v>
       </c>
       <c r="AI69">
-        <v>0.4632954584820148</v>
+        <v>0.4939237565313165</v>
       </c>
       <c r="AJ69">
-        <v>0.5716994774265716</v>
+        <v>0.4637484460864807</v>
       </c>
       <c r="AK69">
-        <v>1.101723302856567</v>
+        <v>0.820836961624788</v>
       </c>
       <c r="AL69">
-        <v>0.4999999999999858</v>
+        <v>2.441898857719527</v>
       </c>
       <c r="AM69">
         <v>0.9580856546984649</v>
@@ -9581,25 +9581,25 @@
         <v>0.4878084067899489</v>
       </c>
       <c r="AG70">
-        <v>0.5081450997695856</v>
+        <v>0.5049399639867334</v>
       </c>
       <c r="AH70">
-        <v>0.5423663176215826</v>
+        <v>0.5505628790032125</v>
       </c>
       <c r="AI70">
-        <v>0.4840564393561502</v>
+        <v>0.5027993755430125</v>
       </c>
       <c r="AJ70">
-        <v>0.4464307518087571</v>
+        <v>0.460283215434685</v>
       </c>
       <c r="AK70">
-        <v>0.005416301507389781</v>
+        <v>0.3311547804985221</v>
       </c>
       <c r="AL70">
-        <v>0.8236949011519434</v>
+        <v>-0.8372874663519541</v>
       </c>
       <c r="AM70">
-        <v>2.842170943040401E-14</v>
+        <v>0.6985634239684586</v>
       </c>
       <c r="AN70">
         <v>0.06845131779844849</v>
@@ -9655,28 +9655,28 @@
         <v>0.4885860436043677</v>
       </c>
       <c r="AG71">
-        <v>0.5176953516747964</v>
+        <v>0.5132108198674772</v>
       </c>
       <c r="AH71">
-        <v>0.5424259916097569</v>
+        <v>0.5546739246368566</v>
       </c>
       <c r="AI71">
-        <v>0.4767754412668362</v>
+        <v>0.5004069298918298</v>
       </c>
       <c r="AJ71">
-        <v>0.5078786133240299</v>
+        <v>0.4750293943573523</v>
       </c>
       <c r="AK71">
-        <v>0.7346554094653104</v>
+        <v>0.575013585398561</v>
       </c>
       <c r="AL71">
-        <v>0.3172738824181198</v>
+        <v>1.45313716102216</v>
       </c>
       <c r="AM71">
-        <v>0.7041586444627154</v>
+        <v>0.3022710497229571</v>
       </c>
       <c r="AN71">
-        <v>0.5000000000000142</v>
+        <v>0.6747718412489763</v>
       </c>
       <c r="AO71">
         <v>2.344079640195559</v>
@@ -9726,31 +9726,31 @@
         <v>0.4883006896284322</v>
       </c>
       <c r="AG72">
-        <v>0.5121915371924795</v>
+        <v>0.5082070035561321</v>
       </c>
       <c r="AH72">
-        <v>0.5414123088672365</v>
+        <v>0.5500658490655218</v>
       </c>
       <c r="AI72">
-        <v>0.4796111624229824</v>
+        <v>0.5012641239973585</v>
       </c>
       <c r="AJ72">
-        <v>0.4702861760277061</v>
+        <v>0.4729846607600792</v>
       </c>
       <c r="AK72">
-        <v>0.2908645101290688</v>
+        <v>0.4373270498986147</v>
       </c>
       <c r="AL72">
-        <v>0.5429438126115355</v>
+        <v>-0.1491819520556539</v>
       </c>
       <c r="AM72">
-        <v>0.38268434949132</v>
+        <v>0.5792027005175489</v>
       </c>
       <c r="AN72">
-        <v>0.4918449523364471</v>
+        <v>0.3854531552012772</v>
       </c>
       <c r="AO72">
-        <v>0.7000000000000171</v>
+        <v>-0.6309196862611097</v>
       </c>
       <c r="AP72">
         <v>-5.587651344285405E-06</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.5148823611552491</v>
+        <v>0.5105961893711617</v>
       </c>
       <c r="AH73">
-        <v>0.5414636280026728</v>
+        <v>0.5511835456013612</v>
       </c>
       <c r="AI73">
-        <v>0.4785834951238043</v>
+        <v>0.5010130524365212</v>
       </c>
       <c r="AJ73">
-        <v>0.4895322456978088</v>
+        <v>0.4770527448088684</v>
       </c>
       <c r="AK73">
-        <v>0.5761305476453815</v>
+        <v>0.5089315963539823</v>
       </c>
       <c r="AL73">
-        <v>0.4872203232942044</v>
+        <v>0.9713790798239287</v>
       </c>
       <c r="AM73">
-        <v>0.5061010472851205</v>
+        <v>0.4705846442186906</v>
       </c>
       <c r="AN73">
-        <v>0.4609377173520111</v>
+        <v>0.469202039214221</v>
       </c>
       <c r="AO73">
-        <v>0.1678990715131956</v>
+        <v>0.6354789855072864</v>
       </c>
       <c r="AP73">
-        <v>-0.9999999999999858</v>
+        <v>0.7154130901486367</v>
       </c>
       <c r="AQ73">
         <v>0.6233623182505568</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.5133797908899045</v>
-      </c>
       <c r="AH74">
-        <v>0.5412542160607593</v>
+        <v>0.5500773893122956</v>
       </c>
       <c r="AI74">
-        <v>0.4789747201631037</v>
+        <v>0.5010977254543597</v>
       </c>
       <c r="AJ74">
-        <v>0.4781637928665377</v>
+        <v>0.4761998162613824</v>
       </c>
       <c r="AK74">
-        <v>0.3988719989430107</v>
+        <v>0.4696496451255446</v>
       </c>
       <c r="AL74">
-        <v>0.488522430646401</v>
+        <v>0.1876726239761763</v>
       </c>
       <c r="AM74">
-        <v>0.4631965612852782</v>
+        <v>0.4953288436776486</v>
       </c>
       <c r="AN74">
-        <v>0.4755439442872758</v>
+        <v>0.4558909293510771</v>
       </c>
       <c r="AO74">
-        <v>0.6670944315307127</v>
+        <v>0.7491318745028579</v>
       </c>
       <c r="AP74">
-        <v>1.213367536971843</v>
+        <v>0.4308774789538838</v>
       </c>
       <c r="AQ74">
-        <v>-0.5</v>
+        <v>0.6273832762740353</v>
       </c>
       <c r="AR74">
         <v>-4.887355777631228</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.5412727967252919</v>
-      </c>
       <c r="AI75">
-        <v>0.4788307311484218</v>
+        <v>0.5010718752162621</v>
       </c>
       <c r="AJ75">
-        <v>0.4841479476998526</v>
+        <v>0.4773441384576771</v>
       </c>
       <c r="AK75">
-        <v>0.5113427675000891</v>
+        <v>0.4904605042369737</v>
       </c>
       <c r="AL75">
-        <v>0.4947379338392972</v>
+        <v>0.7357786790044953</v>
       </c>
       <c r="AM75">
-        <v>0.4770913270335519</v>
+        <v>0.4963840181706344</v>
       </c>
       <c r="AN75">
-        <v>0.4714274071941278</v>
+        <v>0.4543792035213719</v>
       </c>
       <c r="AO75">
-        <v>0.5611375497705883</v>
+        <v>0.3947497999959518</v>
       </c>
       <c r="AP75">
-        <v>0.3258125681796841</v>
+        <v>0.4667403560358687</v>
       </c>
       <c r="AQ75">
-        <v>0.8652478790383289</v>
+        <v>0.356295972053887</v>
       </c>
       <c r="AR75">
-        <v>2.799999999999997</v>
+        <v>2.068698868805536</v>
       </c>
       <c r="AS75">
         <v>0.07746478018819403</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.4788849653295497</v>
-      </c>
       <c r="AJ76">
-        <v>0.4806922489143656</v>
+        <v>0.4770305286910815</v>
       </c>
       <c r="AK76">
-        <v>0.440896029499445</v>
+        <v>0.4791819312592954</v>
       </c>
       <c r="AL76">
-        <v>0.491315140291503</v>
+        <v>0.3524447867529415</v>
       </c>
       <c r="AM76">
-        <v>0.4728483965007392</v>
+        <v>0.4921112829423805</v>
       </c>
       <c r="AN76">
-        <v>0.4721150630997129</v>
+        <v>0.4563996896316383</v>
       </c>
       <c r="AO76">
-        <v>0.5161579888235781</v>
+        <v>0.533862120343719</v>
       </c>
       <c r="AP76">
-        <v>0.4111563609322812</v>
+        <v>0.4904364995409947</v>
       </c>
       <c r="AQ76">
-        <v>0.3549748406297492</v>
+        <v>0.4817038273272236</v>
       </c>
       <c r="AR76">
-        <v>-0.9091272736756697</v>
+        <v>-0.6629420952268306</v>
       </c>
       <c r="AS76">
-        <v>0</v>
+        <v>0.5097873556858414</v>
       </c>
       <c r="AT76">
         <v>0.2231996868496964</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.482544340323523</v>
-      </c>
       <c r="AK77">
-        <v>0.4853741309604312</v>
+        <v>0.4852044821700032</v>
       </c>
       <c r="AL77">
-        <v>0.492341749023438</v>
+        <v>0.6205402892382169</v>
       </c>
       <c r="AM77">
-        <v>0.4740745846253682</v>
+        <v>0.494530736380846</v>
       </c>
       <c r="AN77">
-        <v>0.4721345725694527</v>
+        <v>0.4555533077305491</v>
       </c>
       <c r="AO77">
-        <v>0.5525880782783839</v>
+        <v>0.5529047233569563</v>
       </c>
       <c r="AP77">
-        <v>0.5036778841160711</v>
+        <v>0.4735941581861821</v>
       </c>
       <c r="AQ77">
-        <v>0.4564759890460434</v>
+        <v>0.4638352445406571</v>
       </c>
       <c r="AR77">
-        <v>1.03793642088663</v>
+        <v>0.8627066545622714</v>
       </c>
       <c r="AS77">
-        <v>0.512457532411738</v>
+        <v>0.3687939654218279</v>
       </c>
       <c r="AT77">
-        <v>0.2000000000000028</v>
+        <v>0.4619893905475227</v>
       </c>
       <c r="AU77">
         <v>0.3473129037311367</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.4574299762358321</v>
-      </c>
       <c r="AL78">
-        <v>0.4922267908533682</v>
+        <v>0.433040016275188</v>
       </c>
       <c r="AM78">
-        <v>0.4737401254604924</v>
+        <v>0.4937009029921434</v>
       </c>
       <c r="AN78">
-        <v>0.4720706495701509</v>
+        <v>0.4557746093269947</v>
       </c>
       <c r="AO78">
-        <v>0.5459295254139902</v>
+        <v>0.5109019081211359</v>
       </c>
       <c r="AP78">
-        <v>0.4475959152559272</v>
+        <v>0.4784246042284935</v>
       </c>
       <c r="AQ78">
-        <v>0.4588128985342133</v>
+        <v>0.4534404859137499</v>
       </c>
       <c r="AR78">
-        <v>0.03829702038368805</v>
+        <v>0.1159252846651977</v>
       </c>
       <c r="AS78">
-        <v>0.3531815465673669</v>
+        <v>0.4133734203682616</v>
       </c>
       <c r="AT78">
-        <v>0.4586933435140003</v>
+        <v>0.385501686554784</v>
       </c>
       <c r="AU78">
-        <v>-0.09999999999999432</v>
+        <v>0.4127856309743143</v>
       </c>
       <c r="AV78">
         <v>-0.4268782796002455</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.4921600170454044</v>
-      </c>
       <c r="AM79">
-        <v>0.473825325566137</v>
+        <v>0.4938453058990053</v>
       </c>
       <c r="AN79">
-        <v>0.4720979429425814</v>
+        <v>0.4557472997774849</v>
       </c>
       <c r="AO79">
-        <v>0.5422191217684933</v>
+        <v>0.5260652610222825</v>
       </c>
       <c r="AP79">
-        <v>0.460054978287539</v>
+        <v>0.4784976442851401</v>
       </c>
       <c r="AQ79">
-        <v>0.4481791056204856</v>
+        <v>0.4609367166411138</v>
       </c>
       <c r="AR79">
-        <v>0.5544631608661519</v>
+        <v>0.4986788075347309</v>
       </c>
       <c r="AS79">
-        <v>0.4146609828341653</v>
+        <v>0.3992837815885032</v>
       </c>
       <c r="AT79">
-        <v>0.3779189921522212</v>
+        <v>0.4091523682493763</v>
       </c>
       <c r="AU79">
-        <v>0.6096934484336397</v>
+        <v>0.4299966088186031</v>
       </c>
       <c r="AV79">
-        <v>0.2000000000000028</v>
+        <v>0.7409775085278344</v>
       </c>
       <c r="AW79">
         <v>1.034675296103259</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.473805556022654</v>
-      </c>
       <c r="AN80">
-        <v>0.4720907452073648</v>
+        <v>0.455739445591906</v>
       </c>
       <c r="AO80">
-        <v>0.5448606090257856</v>
+        <v>0.5289433401740086</v>
       </c>
       <c r="AP80">
-        <v>0.4625908994603417</v>
+        <v>0.477760530816613</v>
       </c>
       <c r="AQ80">
-        <v>0.4527587720314382</v>
+        <v>0.4590023386821987</v>
       </c>
       <c r="AR80">
-        <v>0.2883339380094571</v>
+        <v>0.3057144899754574</v>
       </c>
       <c r="AS80">
-        <v>0.3918750811718839</v>
+        <v>0.4037368847755007</v>
       </c>
       <c r="AT80">
-        <v>0.4037985701168185</v>
+        <v>0.4018444969400549</v>
       </c>
       <c r="AU80">
-        <v>0.3879547243247343</v>
+        <v>0.4204676026819955</v>
       </c>
       <c r="AV80">
-        <v>0.5872844834843262</v>
+        <v>0.4025702444372586</v>
       </c>
       <c r="AW80">
-        <v>0.09999999999999432</v>
+        <v>0.2722359111789694</v>
       </c>
       <c r="AX80">
         <v>0.434366938073353</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.4720918069459699</v>
-      </c>
       <c r="AO81">
-        <v>0.5444562391471206</v>
+        <v>0.5239888246607376</v>
       </c>
       <c r="AP81">
-        <v>0.4595429837681559</v>
+        <v>0.4781118886585673</v>
       </c>
       <c r="AQ81">
-        <v>0.4516949970639624</v>
+        <v>0.4587836634713219</v>
       </c>
       <c r="AR81">
-        <v>0.4255996041829639</v>
+        <v>0.4035690672827907</v>
       </c>
       <c r="AS81">
-        <v>0.400380151985932</v>
+        <v>0.4023294585806664</v>
       </c>
       <c r="AT81">
-        <v>0.3955124461500313</v>
+        <v>0.4041025385657713</v>
       </c>
       <c r="AU81">
-        <v>0.4209312923645727</v>
+        <v>0.4229040972803657</v>
       </c>
       <c r="AV81">
-        <v>0.387366879688159</v>
+        <v>0.4163175426915304</v>
       </c>
       <c r="AW81">
-        <v>0.5220310903795496</v>
+        <v>0.453200017128585</v>
       </c>
       <c r="AX81">
-        <v>0.09999999999999432</v>
+        <v>0.3466553154471371</v>
       </c>
       <c r="AY81">
         <v>0.41600913674678</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.5441559531910951</v>
-      </c>
       <c r="AP82">
-        <v>0.4605921848378652</v>
+        <v>0.478046362056754</v>
       </c>
       <c r="AQ82">
-        <v>0.4517430030190392</v>
+        <v>0.4591737577515533</v>
       </c>
       <c r="AR82">
-        <v>0.3548069402225765</v>
+        <v>0.3540494108694104</v>
       </c>
       <c r="AS82">
-        <v>0.3972095177894013</v>
+        <v>0.4027742828771287</v>
       </c>
       <c r="AT82">
-        <v>0.3981655427104898</v>
+        <v>0.4034048319014839</v>
       </c>
       <c r="AU82">
-        <v>0.4234285345396526</v>
+        <v>0.4225534707819829</v>
       </c>
       <c r="AV82">
-        <v>0.4231447324445135</v>
+        <v>0.4438476201815144</v>
       </c>
       <c r="AW82">
-        <v>0.4505495806979731</v>
+        <v>0.454150813188294</v>
       </c>
       <c r="AX82">
-        <v>0.5981638006715656</v>
+        <v>0.5043581966093352</v>
       </c>
       <c r="AY82">
-        <v>0</v>
+        <v>0.4547173684135706</v>
       </c>
       <c r="AZ82">
         <v>-0.3423454266220887</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.4605557059008094</v>
-      </c>
       <c r="AQ83">
-        <v>0.4518217234191442</v>
+        <v>0.4590250414433913</v>
       </c>
       <c r="AR83">
-        <v>0.3913181074896862</v>
+        <v>0.3791276622070505</v>
       </c>
       <c r="AS83">
-        <v>0.3983917700924138</v>
+        <v>0.4026336938675968</v>
       </c>
       <c r="AT83">
-        <v>0.3973160600904257</v>
+        <v>0.4036204145466417</v>
       </c>
       <c r="AU83">
-        <v>0.4204474571624467</v>
+        <v>0.4225473539901682</v>
       </c>
       <c r="AV83">
-        <v>0.4291287465464248</v>
+        <v>0.4322305323801225</v>
       </c>
       <c r="AW83">
-        <v>0.4381762627891936</v>
+        <v>0.4374925337182514</v>
       </c>
       <c r="AX83">
-        <v>0.4444981857487758</v>
+        <v>0.4538225064424998</v>
       </c>
       <c r="AY83">
-        <v>0.6689982436522548</v>
+        <v>0.517065839913431</v>
       </c>
       <c r="AZ83">
-        <v>0.4999999999999858</v>
+        <v>0.7713677833284043</v>
       </c>
       <c r="BA83">
         <v>0.7919400257838731</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.4517816577764442</v>
-      </c>
       <c r="AR84">
-        <v>0.37248767473196</v>
+        <v>0.3664306429366952</v>
       </c>
       <c r="AS84">
-        <v>0.3979509541460917</v>
+        <v>0.4026781277480263</v>
       </c>
       <c r="AT84">
-        <v>0.3975880519736332</v>
+        <v>0.403553802201846</v>
       </c>
       <c r="AU84">
-        <v>0.4213394889238211</v>
+        <v>0.4225681267650281</v>
       </c>
       <c r="AV84">
-        <v>0.4235652165921945</v>
+        <v>0.4339150383110228</v>
       </c>
       <c r="AW84">
-        <v>0.4494512152004546</v>
+        <v>0.4436420490552689</v>
       </c>
       <c r="AX84">
-        <v>0.4486546186219493</v>
+        <v>0.4566410603895278</v>
       </c>
       <c r="AY84">
-        <v>0.4862486154218104</v>
+        <v>0.4943207920579912</v>
       </c>
       <c r="AZ84">
-        <v>0.5585083094969138</v>
+        <v>0.4567499705605705</v>
       </c>
       <c r="BA84">
-        <v>0.4000000000000199</v>
+        <v>0.458921116710881</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.3821993830234399</v>
-      </c>
       <c r="AS85">
-        <v>0.3981153184123224</v>
+        <v>0.4026640841913032</v>
       </c>
       <c r="AT85">
-        <v>0.3975009641595186</v>
+        <v>0.403574384584421</v>
       </c>
       <c r="AU85">
-        <v>0.4212148571696035</v>
+        <v>0.4225611475274962</v>
       </c>
       <c r="AV85">
-        <v>0.4250155260025814</v>
+        <v>0.4344068822279311</v>
       </c>
       <c r="AW85">
-        <v>0.4463721358285073</v>
+        <v>0.4428409784523901</v>
       </c>
       <c r="AX85">
-        <v>0.4638891315703645</v>
+        <v>0.4607918372510027</v>
       </c>
       <c r="AY85">
-        <v>0.4885283624682289</v>
+        <v>0.4973016389163061</v>
       </c>
       <c r="AZ85">
-        <v>0.4694970509338148</v>
+        <v>0.4735544834167063</v>
       </c>
       <c r="BA85">
-        <v>0.5100864351442977</v>
+        <v>0.4880886947593195</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.3980540330175104</v>
-      </c>
       <c r="AT86">
-        <v>0.3975288484010551</v>
+        <v>0.4035680248852727</v>
       </c>
       <c r="AU86">
-        <v>0.4212019798752972</v>
+        <v>0.4225624983054956</v>
       </c>
       <c r="AV86">
-        <v>0.4250171612343138</v>
+        <v>0.4340604293618614</v>
       </c>
       <c r="AW86">
-        <v>0.4464800442483278</v>
+        <v>0.4425868305174022</v>
       </c>
       <c r="AX86">
-        <v>0.4576154309732696</v>
+        <v>0.4589325549534881</v>
       </c>
       <c r="AY86">
-        <v>0.5034613223267189</v>
+        <v>0.4979242653021993</v>
       </c>
       <c r="AZ86">
-        <v>0.4950869306431774</v>
+        <v>0.493234165903074</v>
       </c>
       <c r="BA86">
-        <v>0.5045693137243209</v>
+        <v>0.5055579785131434</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.3975199202756454</v>
-      </c>
       <c r="AU87">
-        <v>0.421214459205951</v>
+        <v>0.422562394017864</v>
       </c>
       <c r="AV87">
-        <v>0.4248790201223831</v>
+        <v>0.4341424432718207</v>
       </c>
       <c r="AW87">
-        <v>0.4467254059093643</v>
+        <v>0.4427541232455977</v>
       </c>
       <c r="AX87">
-        <v>0.4583438690470669</v>
+        <v>0.4592066884076895</v>
       </c>
       <c r="AY87">
-        <v>0.498389931279091</v>
+        <v>0.4975167550839408</v>
       </c>
       <c r="AZ87">
-        <v>0.4936468357578846</v>
+        <v>0.4852090431150677</v>
       </c>
       <c r="BA87">
-        <v>0.4972456365920227</v>
+        <v>0.4970787446061912</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.4212108793661302</v>
-      </c>
       <c r="AV88">
-        <v>0.42492896742263</v>
+        <v>0.4341452338696238</v>
       </c>
       <c r="AW88">
-        <v>0.4466233880927641</v>
+        <v>0.4427144010904328</v>
       </c>
       <c r="AX88">
-        <v>0.4587524407543468</v>
+        <v>0.4592950024559618</v>
       </c>
       <c r="AY88">
-        <v>0.4987647752402616</v>
+        <v>0.4976045377335131</v>
       </c>
       <c r="AZ88">
-        <v>0.4920410852159464</v>
+        <v>0.4863416595652553</v>
       </c>
       <c r="BA88">
-        <v>0.500267372685581</v>
+        <v>0.4985740217710199</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.4249239534095212</v>
-      </c>
       <c r="AW89">
-        <v>0.4466388644580502</v>
+        <v>0.4427141982404669</v>
       </c>
       <c r="AX89">
-        <v>0.4585166470538797</v>
+        <v>0.4592333395654288</v>
       </c>
       <c r="AY89">
-        <v>0.4990774369349928</v>
+        <v>0.4976046361071923</v>
       </c>
       <c r="AZ89">
-        <v>0.4927072605122887</v>
+        <v>0.4866050505216891</v>
       </c>
       <c r="BA89">
-        <v>0.4998273191980755</v>
+        <v>0.4987576275825445</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.4466425314840439</v>
-      </c>
       <c r="AX90">
-        <v>0.4585619793843251</v>
+        <v>0.4592475241575088</v>
       </c>
       <c r="AY90">
-        <v>0.4989431922001938</v>
+        <v>0.4975985012308651</v>
       </c>
       <c r="AZ90">
-        <v>0.4926114597133319</v>
+        <v>0.4864244333794625</v>
       </c>
       <c r="BA90">
-        <v>0.4997271051559239</v>
+        <v>0.4985700197351937</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.4585704778188461</v>
-      </c>
       <c r="AY91">
-        <v>0.4989602030465912</v>
+        <v>0.4976004676159436</v>
       </c>
       <c r="AZ91">
-        <v>0.492589562903889</v>
+        <v>0.4864644042184769</v>
       </c>
       <c r="BA91">
-        <v>0.4997990879445027</v>
+        <v>0.4986199155101607</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.4989661650629561</v>
-      </c>
       <c r="AZ92">
-        <v>0.4926048895164024</v>
+        <v>0.4864654248180942</v>
       </c>
       <c r="BA92">
-        <v>0.4997823659200018</v>
+        <v>0.4986181434214205</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.4926014522284588</v>
-      </c>
       <c r="BA93">
-        <v>0.4997821579800324</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.499783635796776</v>
+        <v>0.4986146243852339</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_PUBCON_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>0.4011221634494007</v>
       </c>
+      <c r="BB2">
+        <v>0.4011221634494007</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>0.4238702649943349</v>
       </c>
+      <c r="BB3">
+        <v>0.4238702649943349</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>1.065831052964711</v>
       </c>
+      <c r="BB4">
+        <v>1.065831052964711</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>0.1679892790148898</v>
       </c>
+      <c r="BB5">
+        <v>0.1679892790148898</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>0.7826320556679605</v>
       </c>
+      <c r="BB6">
+        <v>0.7826320556679605</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>1.608891637697312</v>
       </c>
+      <c r="BB7">
+        <v>1.608891637697312</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>0.7314738238097078</v>
       </c>
+      <c r="BB8">
+        <v>0.7314738238097078</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>0.6066829402737994</v>
       </c>
+      <c r="BB9">
+        <v>0.6066829402737994</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>0.3745978975504585</v>
       </c>
+      <c r="BB10">
+        <v>0.3745978975504585</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>1.488552458234295</v>
       </c>
+      <c r="BB11">
+        <v>1.488552458234295</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>-1.412768783584468</v>
       </c>
+      <c r="BB12">
+        <v>-1.412768783584468</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>1.150059426400716</v>
       </c>
+      <c r="BB13">
+        <v>1.150059426400716</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>0.08121742761659334</v>
       </c>
+      <c r="BB14">
+        <v>0.08121742761659334</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>-0.02717560123848273</v>
       </c>
+      <c r="BB15">
+        <v>-0.02717560123848273</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>0.7243763014332956</v>
       </c>
+      <c r="BB16">
+        <v>0.7243763014332956</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>0.06292774364702325</v>
       </c>
+      <c r="BB17">
+        <v>0.06292774364702325</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>0.6288730841304044</v>
       </c>
+      <c r="BB18">
+        <v>0.6288730841304044</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>-0.04932303278563666</v>
       </c>
+      <c r="BB19">
+        <v>-0.04932303278563666</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>0.7008158264609534</v>
       </c>
+      <c r="BB20">
+        <v>0.7008158264609534</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>-0.05880790937801805</v>
       </c>
+      <c r="BB21">
+        <v>-0.05880790937801805</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>0.4315408898675201</v>
       </c>
+      <c r="BB22">
+        <v>0.4315408898675201</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>0.01220354597239748</v>
       </c>
+      <c r="BB23">
+        <v>0.01220354597239748</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>-0.0390655612641666</v>
       </c>
+      <c r="BB24">
+        <v>-0.0390655612641666</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>0.5861016707528819</v>
       </c>
+      <c r="BB25">
+        <v>0.5861016707528819</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>-0.09710917920445183</v>
       </c>
+      <c r="BB26">
+        <v>-0.09710917920445183</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>0.5608392729090639</v>
       </c>
+      <c r="BB27">
+        <v>0.5608392729090639</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>0.4327290387686133</v>
       </c>
+      <c r="BB28">
+        <v>0.4327290387686133</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>0.6415186033097626</v>
       </c>
+      <c r="BB29">
+        <v>0.6415186033097626</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>0.3424960270584307</v>
       </c>
+      <c r="BB30">
+        <v>0.3424960270584307</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>0.450007896627298</v>
       </c>
+      <c r="BB31">
+        <v>0.450007896627298</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>0.5281644231130258</v>
       </c>
+      <c r="BB32">
+        <v>0.5281644231130258</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>0.9569320119344127</v>
       </c>
+      <c r="BB33">
+        <v>0.9569320119344127</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>1.458965617195048</v>
       </c>
+      <c r="BB34">
+        <v>1.458965617195048</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>1.616667503385756</v>
       </c>
+      <c r="BB35">
+        <v>1.616667503385756</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>0.7391298723574948</v>
       </c>
+      <c r="BB36">
+        <v>0.7391298723574948</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>0.05368498059650051</v>
       </c>
+      <c r="BB37">
+        <v>0.05368498059650051</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>0.2682953781150843</v>
       </c>
+      <c r="BB38">
+        <v>0.2682953781150843</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>0.07985748687143257</v>
       </c>
+      <c r="BB39">
+        <v>0.07985748687143257</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>0.5497494968945205</v>
       </c>
+      <c r="BB40">
+        <v>0.5497494968945205</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>0.5291048039492949</v>
       </c>
+      <c r="BB41">
+        <v>0.5291048039492949</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>0.4298198366907684</v>
       </c>
+      <c r="BB42">
+        <v>0.4298198366907684</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>-1.256079109168695E-05</v>
       </c>
+      <c r="BB43">
+        <v>-1.256079109168695E-05</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>0.5955762646739942</v>
       </c>
+      <c r="BB44">
+        <v>0.5955762646739942</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>0.1202567733712812</v>
       </c>
+      <c r="BB45">
+        <v>0.1202567733712812</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>0.378819647862997</v>
       </c>
+      <c r="BB46">
+        <v>0.378819647862997</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>1.1</v>
       </c>
+      <c r="BB47">
+        <v>1.1</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>0.5</v>
       </c>
+      <c r="BB48">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>1.4</v>
       </c>
+      <c r="BB49">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>0.1</v>
       </c>
+      <c r="BB50">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>1.14595180410879</v>
       </c>
+      <c r="BB51">
+        <v>1.14595180410879</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>1.264351713671076</v>
       </c>
+      <c r="BB52">
+        <v>1.264351713671076</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>0.9847891746257034</v>
       </c>
+      <c r="BB53">
+        <v>0.9847891746257034</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>0.1306165969516826</v>
       </c>
+      <c r="BB54">
+        <v>0.1306165969516826</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>-0.702620495601451</v>
       </c>
+      <c r="BB55">
+        <v>-0.702620495601451</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>4.902896932015494</v>
       </c>
+      <c r="BB56">
+        <v>4.902896932015494</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>-3.137970849842105</v>
       </c>
+      <c r="BB57">
+        <v>-3.137970849842105</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>0.1542746451113572</v>
       </c>
+      <c r="BB58">
+        <v>0.1542746451113572</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>0.833545251617636</v>
       </c>
+      <c r="BB59">
+        <v>0.833545251617636</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>0.3586840777896043</v>
       </c>
+      <c r="BB60">
+        <v>0.3586840777896043</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>-1.11464790305466</v>
       </c>
+      <c r="BB61">
+        <v>-1.11464790305466</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>0.1937043270045251</v>
       </c>
+      <c r="BB62">
+        <v>0.1937043270045251</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>-1.254351945331166</v>
       </c>
+      <c r="BB63">
+        <v>-1.254351945331166</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>0.05976999529040938</v>
       </c>
+      <c r="BB64">
+        <v>0.05976999529040938</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>1.365536114841987</v>
       </c>
+      <c r="BB65">
+        <v>1.365536114841987</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>0.5893749959732304</v>
       </c>
+      <c r="BB66">
+        <v>0.5893749959732304</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>0.450398338429352</v>
       </c>
+      <c r="BB67">
+        <v>0.450398338429352</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>1.478730722800918</v>
       </c>
+      <c r="BB68">
+        <v>1.478730722800918</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>1.16573263774626</v>
       </c>
+      <c r="BB69">
+        <v>1.16573263774626</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>0.4367731001324842</v>
       </c>
+      <c r="BB70">
+        <v>0.4367731001324842</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>-0.2509219420021225</v>
       </c>
+      <c r="BB71">
+        <v>0.1765865160815849</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>0.7919400257838731</v>
       </c>
+      <c r="BB72">
+        <v>0.2412052862208469</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.458921116710881</v>
       </c>
+      <c r="BB73">
+        <v>0.768168485846715</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.4880886947593195</v>
       </c>
+      <c r="BB74">
+        <v>0.4322849306135402</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.5055579785131434</v>
       </c>
+      <c r="BB75">
+        <v>0.5070298915095297</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.4970787446061912</v>
       </c>
+      <c r="BB76">
+        <v>0.507551532258898</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>0.4985740217710199</v>
       </c>
+      <c r="BB77">
+        <v>0.5015060205255966</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>0.4987576275825445</v>
       </c>
+      <c r="BB78">
+        <v>0.5035546723560925</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.4985700197351937</v>
       </c>
+      <c r="BB79">
+        <v>0.503320960716943</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.4986199155101607</v>
       </c>
+      <c r="BB80">
+        <v>0.5032409843702599</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.4986181434214205</v>
       </c>
+      <c r="BB81">
+        <v>0.5032869668510612</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.4986146243852339</v>
+      </c>
+      <c r="BB82">
+        <v>0.503277349074597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.503277065156336</v>
       </c>
     </row>
   </sheetData>
